--- a/out_test/tables/Fx2/Fx2_30.xlsx
+++ b/out_test/tables/Fx2/Fx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,1066 +2283,1138 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3">
+        <v>101.2036</v>
+      </c>
+      <c r="E3">
+        <v>101.2036</v>
+      </c>
+      <c r="F3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>0.6333333333333331</v>
+      </c>
+      <c r="K3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="P3">
+        <v>-0.2222222222222203</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>1.187729113923087</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.09406771460193936</v>
+      </c>
+      <c r="U3">
+        <v>-1.525406666666655</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>36.46766666666669</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1.630289999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>1.00708094220025</v>
+      </c>
+      <c r="AD3">
+        <v>22</v>
+      </c>
+      <c r="AE3">
+        <v>22</v>
+      </c>
+      <c r="AF3">
+        <v>11.5</v>
+      </c>
+      <c r="AG3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="AH3">
+        <v>11.5</v>
+      </c>
+      <c r="AI3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="AJ3">
+        <v>39</v>
+      </c>
+      <c r="AK3">
         <v>104.6529</v>
       </c>
-      <c r="E3">
+      <c r="AL3">
         <v>104.6529</v>
       </c>
-      <c r="F3">
+      <c r="AM3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AP3">
+        <v>18</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6412280701754386</v>
+      </c>
+      <c r="AR3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AS3">
+        <v>18</v>
+      </c>
+      <c r="AT3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0.3587719298245616</v>
+      </c>
+      <c r="AW3">
+        <v>-0.3713906763541082</v>
+      </c>
+      <c r="AX3">
+        <v>32</v>
+      </c>
+      <c r="AY3">
+        <v>0.8162476193956582</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.0918659187039</v>
+      </c>
+      <c r="BB3">
+        <v>-2.633039999999994</v>
+      </c>
+      <c r="BC3">
+        <v>17</v>
+      </c>
+      <c r="BD3">
+        <v>25.51938</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>1.009956491228071</v>
+      </c>
+      <c r="BG3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.7</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>0.6142857142857142</v>
-      </c>
-      <c r="K3">
+      <c r="BH3">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="BI3">
+        <v>15</v>
+      </c>
+      <c r="BJ3">
+        <v>1.167643096050927</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>24</v>
+      </c>
+      <c r="BR3">
+        <v>102.4144</v>
+      </c>
+      <c r="BS3">
+        <v>102.4144</v>
+      </c>
+      <c r="BT3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="BW3">
+        <v>3</v>
+      </c>
+      <c r="BX3">
+        <v>0.6594202898550724</v>
+      </c>
+      <c r="BY3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BZ3">
+        <v>3</v>
+      </c>
+      <c r="CA3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.3405797101449274</v>
+      </c>
+      <c r="CD3">
+        <v>-0.3909650487961146</v>
+      </c>
+      <c r="CE3">
+        <v>14</v>
+      </c>
+      <c r="CF3">
+        <v>0.7005042896593221</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.07155170801564399</v>
+      </c>
+      <c r="CI3">
+        <v>-1.846326666666656</v>
+      </c>
+      <c r="CJ3">
+        <v>7</v>
+      </c>
+      <c r="CK3">
+        <v>23.91931</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>1.169616231884059</v>
+      </c>
+      <c r="CN3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>19</v>
+      </c>
+      <c r="CQ3">
+        <v>1.128954263329263</v>
+      </c>
+      <c r="CR3">
+        <v>23</v>
+      </c>
+      <c r="CS3">
+        <v>6</v>
+      </c>
+      <c r="CT3">
+        <v>20.5</v>
+      </c>
+      <c r="CU3">
+        <v>1.513825177048746</v>
+      </c>
+      <c r="CV3">
+        <v>3.5</v>
+      </c>
+      <c r="CW3">
+        <v>1.513825177048746</v>
+      </c>
+      <c r="CX3">
+        <v>19</v>
+      </c>
+      <c r="CY3">
+        <v>95.45289999999999</v>
+      </c>
+      <c r="CZ3">
+        <v>95.45289999999994</v>
+      </c>
+      <c r="DA3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="DD3">
+        <v>5</v>
+      </c>
+      <c r="DE3">
+        <v>0.6351851851851849</v>
+      </c>
+      <c r="DF3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="DG3">
+        <v>5</v>
+      </c>
+      <c r="DH3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3648148148148146</v>
+      </c>
+      <c r="DK3">
+        <v>-0.2672612419124223</v>
+      </c>
+      <c r="DL3">
+        <v>18</v>
+      </c>
+      <c r="DM3">
+        <v>1.020233136277765</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.01243866095150736</v>
+      </c>
+      <c r="DP3">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="DQ3">
+        <v>9</v>
+      </c>
+      <c r="DR3">
+        <v>33.51880666666666</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>1.103211481481479</v>
+      </c>
+      <c r="DU3">
+        <v>1.6</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>19</v>
+      </c>
+      <c r="DX3">
+        <v>1.202130325814536</v>
+      </c>
+      <c r="DY3">
+        <v>18</v>
+      </c>
+      <c r="DZ3">
+        <v>1</v>
+      </c>
+      <c r="EA3">
+        <v>18</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>1</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>49</v>
+      </c>
+      <c r="EF3">
+        <v>103.8361</v>
+      </c>
+      <c r="EG3">
+        <v>103.8361</v>
+      </c>
+      <c r="EH3">
         <v>0.3</v>
       </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3857142857142857</v>
-      </c>
-      <c r="P3">
-        <v>0.1856953381770576</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>0.8476082156187901</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.3448518443341611</v>
-      </c>
-      <c r="U3">
-        <v>0.4927500000000151</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>26.02470000000001</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>7.108378095238097</v>
-      </c>
-      <c r="Z3">
-        <v>2.2</v>
-      </c>
-      <c r="AA3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>1.793068050937266</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>17</v>
-      </c>
-      <c r="AG3">
-        <v>104.6529</v>
-      </c>
-      <c r="AH3">
-        <v>104.6529</v>
-      </c>
-      <c r="AI3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0.7</v>
-      </c>
-      <c r="AL3">
-        <v>4</v>
-      </c>
-      <c r="AM3">
-        <v>0.6187499999999998</v>
-      </c>
-      <c r="AN3">
-        <v>0.3</v>
-      </c>
-      <c r="AO3">
-        <v>4</v>
-      </c>
-      <c r="AP3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0.38125</v>
-      </c>
-      <c r="AS3">
-        <v>-0.1047428863043641</v>
-      </c>
-      <c r="AT3">
-        <v>6</v>
-      </c>
-      <c r="AU3">
-        <v>1.00481712840589</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0.1787974431858033</v>
-      </c>
-      <c r="AX3">
-        <v>-0.8317100000000295</v>
-      </c>
-      <c r="AY3">
-        <v>6</v>
-      </c>
-      <c r="AZ3">
-        <v>31.41486666666668</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>2.03017875</v>
-      </c>
-      <c r="BC3">
-        <v>2</v>
-      </c>
-      <c r="BD3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="BE3">
-        <v>5</v>
-      </c>
-      <c r="BF3">
-        <v>1.263143211645589</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>23</v>
-      </c>
-      <c r="BJ3">
-        <v>102.8196</v>
-      </c>
-      <c r="BK3">
-        <v>102.8196</v>
-      </c>
-      <c r="BL3">
-        <v>0.5</v>
-      </c>
-      <c r="BM3">
-        <v>22</v>
-      </c>
-      <c r="BN3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BO3">
-        <v>17</v>
-      </c>
-      <c r="BP3">
-        <v>0.6393939393939392</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BR3">
-        <v>17</v>
-      </c>
-      <c r="BS3">
-        <v>0.5</v>
-      </c>
-      <c r="BT3">
-        <v>22</v>
-      </c>
-      <c r="BU3">
-        <v>0.3606060606060605</v>
-      </c>
-      <c r="BV3">
-        <v>-0.2252268924508389</v>
-      </c>
-      <c r="BW3">
-        <v>13</v>
-      </c>
-      <c r="BX3">
-        <v>0.4743579765105144</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0.1158391810422376</v>
-      </c>
-      <c r="CA3">
-        <v>-2.328470000000024</v>
-      </c>
-      <c r="CB3">
-        <v>13</v>
-      </c>
-      <c r="CC3">
-        <v>16.19735333333333</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>1.592196818181816</v>
-      </c>
-      <c r="CF3">
-        <v>1</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>9</v>
-      </c>
-      <c r="CI3">
-        <v>0.9860776169530679</v>
-      </c>
-      <c r="CJ3">
-        <v>22</v>
-      </c>
-      <c r="CK3">
-        <v>15</v>
-      </c>
-      <c r="CL3">
-        <v>27</v>
-      </c>
-      <c r="CM3">
-        <v>104.6529</v>
-      </c>
-      <c r="CN3">
-        <v>104.6529</v>
-      </c>
-      <c r="CO3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CP3">
-        <v>4</v>
-      </c>
-      <c r="CQ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CR3">
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0.8</v>
+      </c>
+      <c r="EK3">
         <v>14</v>
       </c>
-      <c r="CS3">
-        <v>0.6320512820512818</v>
-      </c>
-      <c r="CT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CU3">
-        <v>14</v>
-      </c>
-      <c r="CV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CW3">
-        <v>4</v>
-      </c>
-      <c r="CX3">
-        <v>0.3679487179487181</v>
-      </c>
-      <c r="CY3">
-        <v>-0.3713906763541089</v>
-      </c>
-      <c r="CZ3">
-        <v>20</v>
-      </c>
-      <c r="DA3">
-        <v>0.7143212275850279</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.1115751036413779</v>
-      </c>
-      <c r="DD3">
-        <v>-0.2567533333333074</v>
-      </c>
-      <c r="DE3">
-        <v>12</v>
-      </c>
-      <c r="DF3">
-        <v>23.46835666666668</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>1.504163717948718</v>
-      </c>
-      <c r="DI3">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="DJ3">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="DK3">
-        <v>6</v>
-      </c>
-      <c r="DL3">
-        <v>1.20600937166156</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>44</v>
-      </c>
-      <c r="DP3">
-        <v>100.8016</v>
-      </c>
-      <c r="DQ3">
-        <v>100.8015999999999</v>
-      </c>
-      <c r="DR3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.8</v>
-      </c>
-      <c r="DU3">
-        <v>36</v>
-      </c>
-      <c r="DV3">
-        <v>0.6379844961240312</v>
-      </c>
-      <c r="DW3">
+      <c r="EL3">
+        <v>0.6444444444444443</v>
+      </c>
+      <c r="EM3">
         <v>0.2</v>
-      </c>
-      <c r="DX3">
-        <v>36</v>
-      </c>
-      <c r="DY3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0.3620155038759694</v>
-      </c>
-      <c r="EB3">
-        <v>-0.500000000000011</v>
-      </c>
-      <c r="EC3">
-        <v>43</v>
-      </c>
-      <c r="ED3">
-        <v>1.037691451356024</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.0273419967676941</v>
-      </c>
-      <c r="EG3">
-        <v>-1.562930000000009</v>
-      </c>
-      <c r="EH3">
-        <v>10</v>
-      </c>
-      <c r="EI3">
-        <v>38.10696666666667</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
-        <v>0.7018113953488355</v>
-      </c>
-      <c r="EL3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="EM3">
-        <v>1.636363636363636</v>
       </c>
       <c r="EN3">
         <v>14</v>
       </c>
       <c r="EO3">
-        <v>1.064998300125306</v>
+        <v>0.7</v>
       </c>
       <c r="EP3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
+        <v>0.3555555555555557</v>
+      </c>
+      <c r="ER3">
+        <v>-0.3931944583560265</v>
+      </c>
+      <c r="ES3">
+        <v>33</v>
+      </c>
+      <c r="ET3">
+        <v>1.443200232588501</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.005610917530269111</v>
+      </c>
+      <c r="EW3">
+        <v>-1.917756666666662</v>
+      </c>
+      <c r="EX3">
+        <v>24</v>
+      </c>
+      <c r="EY3">
+        <v>52.99839666666667</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.3816866666666663</v>
+      </c>
+      <c r="FB3">
+        <v>1.2</v>
+      </c>
+      <c r="FC3">
+        <v>1.7</v>
+      </c>
+      <c r="FD3">
+        <v>23</v>
+      </c>
+      <c r="FE3">
+        <v>1.098058666129052</v>
+      </c>
+      <c r="FF3">
+        <v>48</v>
+      </c>
+      <c r="FG3">
         <v>1</v>
       </c>
-      <c r="ER3">
-        <v>12</v>
-      </c>
-      <c r="ES3">
+      <c r="FH3">
+        <v>48</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>1</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>35</v>
+      </c>
+      <c r="FM3">
+        <v>90.06010000000001</v>
+      </c>
+      <c r="FN3">
+        <v>90.06010000000002</v>
+      </c>
+      <c r="FO3">
+        <v>0.5</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="FR3">
+        <v>28</v>
+      </c>
+      <c r="FS3">
+        <v>0.6372549019607843</v>
+      </c>
+      <c r="FT3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>28</v>
+      </c>
+      <c r="FV3">
+        <v>0.5</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0.3627450980392157</v>
+      </c>
+      <c r="FY3">
+        <v>-0.3333333333333289</v>
+      </c>
+      <c r="FZ3">
+        <v>30</v>
+      </c>
+      <c r="GA3">
+        <v>0.9954217185006572</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.03216696469749031</v>
+      </c>
+      <c r="GD3">
+        <v>-0.7781699999999887</v>
+      </c>
+      <c r="GE3">
+        <v>8</v>
+      </c>
+      <c r="GF3">
+        <v>30.31143666666667</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.8950753921568629</v>
+      </c>
+      <c r="GI3">
+        <v>3</v>
+      </c>
+      <c r="GJ3">
+        <v>1.25</v>
+      </c>
+      <c r="GK3">
+        <v>20</v>
+      </c>
+      <c r="GL3">
+        <v>0.9939768961197538</v>
+      </c>
+      <c r="GM3">
+        <v>34</v>
+      </c>
+      <c r="GN3">
+        <v>27</v>
+      </c>
+      <c r="GO3">
+        <v>21</v>
+      </c>
+      <c r="GP3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="GQ3">
+        <v>14</v>
+      </c>
+      <c r="GR3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="GS3">
+        <v>23</v>
+      </c>
+      <c r="GT3">
         <v>104.6529</v>
       </c>
-      <c r="ET3">
+      <c r="GU3">
         <v>104.6529</v>
       </c>
-      <c r="EU3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EW3">
-        <v>0.7</v>
-      </c>
-      <c r="EX3">
-        <v>8</v>
-      </c>
-      <c r="EY3">
-        <v>0.6424242424242423</v>
-      </c>
-      <c r="EZ3">
-        <v>0.3</v>
-      </c>
-      <c r="FA3">
-        <v>8</v>
-      </c>
-      <c r="FB3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0.3575757575757575</v>
-      </c>
-      <c r="FE3">
-        <v>-0.3108926067835316</v>
-      </c>
-      <c r="FF3">
-        <v>6</v>
-      </c>
-      <c r="FG3">
-        <v>1.228367931175381</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.1531345863699965</v>
-      </c>
-      <c r="FJ3">
-        <v>-2.385873333333322</v>
-      </c>
-      <c r="FK3">
-        <v>6</v>
-      </c>
-      <c r="FL3">
-        <v>37.40484666666667</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>3.448359393939394</v>
-      </c>
-      <c r="FO3">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="FP3">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="FQ3">
-        <v>2</v>
-      </c>
-      <c r="FR3">
-        <v>1.664881715506715</v>
-      </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
-        <v>101</v>
-      </c>
-      <c r="FV3">
-        <v>104.6529</v>
-      </c>
-      <c r="FW3">
-        <v>104.6529</v>
-      </c>
-      <c r="FX3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0.8</v>
-      </c>
-      <c r="GA3">
-        <v>5</v>
-      </c>
-      <c r="GB3">
-        <v>0.6323333333333335</v>
-      </c>
-      <c r="GC3">
-        <v>0.2</v>
-      </c>
-      <c r="GD3">
-        <v>5</v>
-      </c>
-      <c r="GE3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
-        <v>0.3676666666666666</v>
-      </c>
-      <c r="GH3">
-        <v>-0.3922322702763677</v>
-      </c>
-      <c r="GI3">
-        <v>38</v>
-      </c>
-      <c r="GJ3">
-        <v>1.260656560172406</v>
-      </c>
-      <c r="GK3">
-        <v>0</v>
-      </c>
-      <c r="GL3">
-        <v>0.02270583499146366</v>
-      </c>
-      <c r="GM3">
-        <v>-1.430273333333346</v>
-      </c>
-      <c r="GN3">
-        <v>10</v>
-      </c>
-      <c r="GO3">
-        <v>44.49349333333333</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>0.2069062333333335</v>
-      </c>
-      <c r="GR3">
-        <v>2.5</v>
-      </c>
-      <c r="GS3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="GT3">
-        <v>28</v>
-      </c>
-      <c r="GU3">
-        <v>1.061797949279874</v>
-      </c>
       <c r="GV3">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="GW3">
         <v>0</v>
       </c>
       <c r="GX3">
-        <v>30</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="GY3">
-        <v>104.6529</v>
+        <v>13</v>
       </c>
       <c r="GZ3">
-        <v>104.6529</v>
+        <v>0.6318181818181816</v>
       </c>
       <c r="HA3">
-        <v>0.4666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="HB3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="HC3">
-        <v>0.7666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="HD3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="HE3">
-        <v>0.6126436781609195</v>
+        <v>0.3681818181818181</v>
       </c>
       <c r="HF3">
-        <v>0.2333333333333333</v>
+        <v>-0.2802566928831161</v>
       </c>
       <c r="HG3">
         <v>6</v>
       </c>
       <c r="HH3">
-        <v>0.5333333333333333</v>
+        <v>0.9002617591942994</v>
       </c>
       <c r="HI3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="HJ3">
-        <v>0.3873563218390805</v>
+        <v>0.13801014289991</v>
       </c>
       <c r="HK3">
-        <v>-0.2766857855464284</v>
+        <v>-3.037976666666694</v>
       </c>
       <c r="HL3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="HM3">
-        <v>0.8691674819067465</v>
+        <v>31.77375333333332</v>
       </c>
       <c r="HN3">
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>0.13479527818097</v>
+        <v>1.51865287878788</v>
       </c>
       <c r="HP3">
-        <v>-2.197439999999986</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>16</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="HR3">
-        <v>25.38505666666667</v>
+        <v>13</v>
       </c>
       <c r="HS3">
-        <v>0</v>
+        <v>1.230928680184973</v>
       </c>
       <c r="HT3">
-        <v>1.655258620689655</v>
+        <v>0</v>
       </c>
       <c r="HU3">
-        <v>2</v>
-      </c>
-      <c r="HV3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="HW3">
-        <v>20</v>
-      </c>
-      <c r="HX3">
-        <v>1.20591716758536</v>
-      </c>
-      <c r="HY3">
         <v>0</v>
       </c>
       <c r="HZ3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="IA3">
-        <v>62</v>
+        <v>104.6529</v>
       </c>
       <c r="IB3">
         <v>104.6529</v>
       </c>
       <c r="IC3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="ID3">
+        <v>0</v>
+      </c>
+      <c r="IE3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="IF3">
+        <v>12</v>
+      </c>
+      <c r="IG3">
+        <v>0.6483333333333331</v>
+      </c>
+      <c r="IH3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="II3">
+        <v>12</v>
+      </c>
+      <c r="IJ3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="IK3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.3516666666666667</v>
+      </c>
+      <c r="IM3">
+        <v>-0.3713906763540992</v>
+      </c>
+      <c r="IN3">
+        <v>19</v>
+      </c>
+      <c r="IO3">
+        <v>1.092252505352855</v>
+      </c>
+      <c r="IP3">
+        <v>0</v>
+      </c>
+      <c r="IQ3">
+        <v>0.1273472700345197</v>
+      </c>
+      <c r="IR3">
+        <v>-1.098719999999986</v>
+      </c>
+      <c r="IS3">
+        <v>19</v>
+      </c>
+      <c r="IT3">
+        <v>31.90051666666668</v>
+      </c>
+      <c r="IU3">
+        <v>0</v>
+      </c>
+      <c r="IV3">
+        <v>2.074352</v>
+      </c>
+      <c r="IW3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="IX3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="IY3">
+        <v>9</v>
+      </c>
+      <c r="IZ3">
+        <v>1.25115977936513</v>
+      </c>
+      <c r="JA3">
+        <v>0</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>75</v>
+      </c>
+      <c r="JH3">
+        <v>88.92489999999999</v>
+      </c>
+      <c r="JI3">
+        <v>88.92489999999999</v>
+      </c>
+      <c r="JJ3">
+        <v>0.5</v>
+      </c>
+      <c r="JK3">
+        <v>52</v>
+      </c>
+      <c r="JL3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JM3">
+        <v>22</v>
+      </c>
+      <c r="JN3">
+        <v>0.6297297297297295</v>
+      </c>
+      <c r="JO3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JP3">
+        <v>22</v>
+      </c>
+      <c r="JQ3">
+        <v>0.5</v>
+      </c>
+      <c r="JR3">
+        <v>52</v>
+      </c>
+      <c r="JS3">
+        <v>0.3702702702702701</v>
+      </c>
+      <c r="JT3">
+        <v>-0.5516772843673602</v>
+      </c>
+      <c r="JU3">
+        <v>44</v>
+      </c>
+      <c r="JV3">
+        <v>0.6154451104577239</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <v>0.006307034025938993</v>
+      </c>
+      <c r="JY3">
+        <v>-2.704093333333319</v>
+      </c>
+      <c r="JZ3">
+        <v>27</v>
+      </c>
+      <c r="KA3">
+        <v>20.75763</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0.27934490990991</v>
+      </c>
+      <c r="KD3">
+        <v>2</v>
+      </c>
+      <c r="KE3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="KF3">
+        <v>12</v>
+      </c>
+      <c r="KG3">
+        <v>1.060634490052406</v>
+      </c>
+      <c r="KH3">
+        <v>74</v>
+      </c>
+      <c r="KI3">
+        <v>71</v>
+      </c>
+      <c r="KJ3">
+        <v>39</v>
+      </c>
+      <c r="KK3">
+        <v>20.27929979067326</v>
+      </c>
+      <c r="KL3">
+        <v>36</v>
+      </c>
+      <c r="KM3">
+        <v>20.27929979067326</v>
+      </c>
+      <c r="KN3">
+        <v>16</v>
+      </c>
+      <c r="KO3">
         <v>104.6529</v>
       </c>
-      <c r="ID3">
+      <c r="KP3">
+        <v>104.6529</v>
+      </c>
+      <c r="KQ3">
         <v>0.5</v>
       </c>
-      <c r="IE3">
-        <v>38</v>
-      </c>
-      <c r="IF3">
+      <c r="KR3">
+        <v>0</v>
+      </c>
+      <c r="KS3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="IG3">
-        <v>5</v>
-      </c>
-      <c r="IH3">
-        <v>0.6360655737704921</v>
-      </c>
-      <c r="II3">
+      <c r="KT3">
+        <v>9</v>
+      </c>
+      <c r="KU3">
+        <v>0.6088888888888887</v>
+      </c>
+      <c r="KV3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="IJ3">
-        <v>5</v>
-      </c>
-      <c r="IK3">
+      <c r="KW3">
+        <v>9</v>
+      </c>
+      <c r="KX3">
         <v>0.5</v>
       </c>
-      <c r="IL3">
-        <v>38</v>
-      </c>
-      <c r="IM3">
-        <v>0.3639344262295081</v>
-      </c>
-      <c r="IN3">
-        <v>-0.4242640687119285</v>
-      </c>
-      <c r="IO3">
-        <v>17</v>
-      </c>
-      <c r="IP3">
-        <v>0.6045638292456511</v>
-      </c>
-      <c r="IQ3">
-        <v>1</v>
-      </c>
-      <c r="IR3">
-        <v>0.05989152759226263</v>
-      </c>
-      <c r="IS3">
-        <v>-2.26746</v>
-      </c>
-      <c r="IT3">
-        <v>17</v>
-      </c>
-      <c r="IU3">
-        <v>18.48297666666664</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0.6340028961748636</v>
-      </c>
-      <c r="IX3">
+      <c r="KY3">
+        <v>0</v>
+      </c>
+      <c r="KZ3">
+        <v>0.391111111111111</v>
+      </c>
+      <c r="LA3">
+        <v>-0.2509946136037585</v>
+      </c>
+      <c r="LB3">
+        <v>3</v>
+      </c>
+      <c r="LC3">
+        <v>0.5609987084823562</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.2279237764342976</v>
+      </c>
+      <c r="LF3">
+        <v>-6.2084233333333</v>
+      </c>
+      <c r="LG3">
+        <v>3</v>
+      </c>
+      <c r="LH3">
+        <v>16.20349333333332</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>3.697561777777779</v>
+      </c>
+      <c r="LK3">
+        <v>2</v>
+      </c>
+      <c r="LL3">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="LM3">
+        <v>11</v>
+      </c>
+      <c r="LN3">
+        <v>1.395156829017423</v>
+      </c>
+      <c r="LO3">
+        <v>0</v>
+      </c>
+      <c r="LP3">
+        <v>0</v>
+      </c>
+      <c r="LU3">
+        <v>0.4</v>
+      </c>
+      <c r="LV3">
         <v>4</v>
       </c>
-      <c r="IY3">
-        <v>1.25</v>
-      </c>
-      <c r="IZ3">
-        <v>10</v>
-      </c>
-      <c r="JA3">
-        <v>1.113932794973628</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JC3">
-        <v>0</v>
-      </c>
-      <c r="JD3">
-        <v>18</v>
-      </c>
-      <c r="JE3">
-        <v>104.6529</v>
-      </c>
-      <c r="JF3">
-        <v>104.6529</v>
-      </c>
-      <c r="JG3">
+      <c r="LW3">
+        <v>16</v>
+      </c>
+      <c r="LX3">
+        <v>39</v>
+      </c>
+      <c r="LY3">
+        <v>24.75</v>
+      </c>
+      <c r="LZ3">
+        <v>8.613216588476108</v>
+      </c>
+      <c r="MA3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="MB3">
+        <v>0</v>
+      </c>
+      <c r="MC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MD3">
+        <v>13</v>
+      </c>
+      <c r="ME3">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="MF3">
+        <v>0.75</v>
+      </c>
+      <c r="MG3">
+        <v>0.6325671185539604</v>
+      </c>
+      <c r="MH3">
+        <v>0.03726779962499649</v>
+      </c>
+      <c r="MI3">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="MJ3">
+        <v>0.01487283663062444</v>
+      </c>
+      <c r="MK3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="ML3">
+        <v>13</v>
+      </c>
+      <c r="MM3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="MN3">
+        <v>0</v>
+      </c>
+      <c r="MO3">
+        <v>0.25</v>
+      </c>
+      <c r="MP3">
+        <v>0.5166666666666666</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3674328814460394</v>
+      </c>
+      <c r="MR3">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="MS3">
+        <v>0.03726779962499649</v>
+      </c>
+      <c r="MT3">
+        <v>0.01487283663062436</v>
+      </c>
+      <c r="MU3">
+        <v>-0.3713906763541082</v>
+      </c>
+      <c r="MV3">
+        <v>32</v>
+      </c>
+      <c r="MW3">
+        <v>1.092252505352855</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.3185081647987705</v>
+      </c>
+      <c r="MZ3">
+        <v>0.8424401481062922</v>
+      </c>
+      <c r="NA3">
+        <v>0.1462867770181568</v>
+      </c>
+      <c r="NB3">
+        <v>0.05388500430424849</v>
+      </c>
+      <c r="NC3">
+        <v>0.1908172457089166</v>
+      </c>
+      <c r="ND3">
+        <v>0.05013341473119987</v>
+      </c>
+      <c r="NE3">
+        <v>-6.2084233333333</v>
+      </c>
+      <c r="NF3">
+        <v>3</v>
+      </c>
+      <c r="NG3">
+        <v>31.90051666666668</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-3.244539999999994</v>
+      </c>
+      <c r="NJ3">
+        <v>26.34928583333333</v>
+      </c>
+      <c r="NK3">
+        <v>2.075130786948432</v>
+      </c>
+      <c r="NL3">
         <v>0.5</v>
       </c>
-      <c r="JH3">
-        <v>1</v>
-      </c>
-      <c r="JI3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JJ3">
-        <v>11</v>
-      </c>
-      <c r="JK3">
-        <v>0.6098039215686273</v>
-      </c>
-      <c r="JL3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>11</v>
-      </c>
-      <c r="JN3">
-        <v>0.5</v>
-      </c>
-      <c r="JO3">
-        <v>1</v>
-      </c>
-      <c r="JP3">
-        <v>0.3901960784313726</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.1856953381770476</v>
-      </c>
-      <c r="JR3">
-        <v>14</v>
-      </c>
-      <c r="JS3">
-        <v>0.8312409240957133</v>
-      </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0.166388638453684</v>
-      </c>
-      <c r="JV3">
-        <v>-1.960620000000006</v>
-      </c>
-      <c r="JW3">
-        <v>5</v>
-      </c>
-      <c r="JX3">
-        <v>24.00898</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>2.803408235294118</v>
-      </c>
-      <c r="KA3">
+      <c r="NM3">
         <v>2</v>
       </c>
-      <c r="KB3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="KC3">
-        <v>4</v>
-      </c>
-      <c r="KD3">
-        <v>1.276959659230041</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
-        <v>0</v>
-      </c>
-      <c r="KG3">
-        <v>0.8</v>
-      </c>
-      <c r="KH3">
-        <v>8</v>
-      </c>
-      <c r="KI3">
-        <v>8</v>
-      </c>
-      <c r="KJ3">
-        <v>101</v>
-      </c>
-      <c r="KK3">
-        <v>34.375</v>
-      </c>
-      <c r="KL3">
-        <v>29.6687440752048</v>
-      </c>
-      <c r="KM3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="KN3">
-        <v>0</v>
-      </c>
-      <c r="KO3">
-        <v>0.8</v>
-      </c>
-      <c r="KP3">
-        <v>5</v>
-      </c>
-      <c r="KQ3">
-        <v>0.475</v>
-      </c>
-      <c r="KR3">
-        <v>0.7375</v>
-      </c>
-      <c r="KS3">
-        <v>0.6247947181993263</v>
-      </c>
-      <c r="KT3">
-        <v>0.06180165405913052</v>
-      </c>
-      <c r="KU3">
-        <v>0.03510895738823486</v>
-      </c>
-      <c r="KV3">
-        <v>0.01154702497281603</v>
-      </c>
-      <c r="KW3">
-        <v>0.2</v>
-      </c>
-      <c r="KX3">
-        <v>5</v>
-      </c>
-      <c r="KY3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="KZ3">
-        <v>0</v>
-      </c>
-      <c r="LA3">
-        <v>0.2625</v>
-      </c>
-      <c r="LB3">
-        <v>0.525</v>
-      </c>
-      <c r="LC3">
-        <v>0.3752052818006736</v>
-      </c>
-      <c r="LD3">
-        <v>0.03510895738823482</v>
-      </c>
-      <c r="LE3">
-        <v>0.06180165405913051</v>
-      </c>
-      <c r="LF3">
-        <v>0.01154702497281599</v>
-      </c>
-      <c r="LG3">
-        <v>-0.4242640687119285</v>
-      </c>
-      <c r="LH3">
-        <v>17</v>
-      </c>
-      <c r="LI3">
-        <v>1.260656560172406</v>
-      </c>
-      <c r="LJ3">
-        <v>0</v>
-      </c>
-      <c r="LK3">
-        <v>-0.2350260367470899</v>
-      </c>
-      <c r="LL3">
-        <v>0.9200929122757008</v>
-      </c>
-      <c r="LM3">
-        <v>0.1465175320937149</v>
-      </c>
-      <c r="LN3">
-        <v>0.1880907729945215</v>
-      </c>
-      <c r="LO3">
-        <v>0.2167481180179686</v>
-      </c>
-      <c r="LP3">
-        <v>0.09014496927549201</v>
-      </c>
-      <c r="LQ3">
-        <v>-2.385873333333322</v>
-      </c>
-      <c r="LR3">
-        <v>6</v>
-      </c>
-      <c r="LS3">
-        <v>44.49349333333333</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>-1.354672499999998</v>
-      </c>
-      <c r="LV3">
-        <v>28.83540958333334</v>
-      </c>
-      <c r="LW3">
-        <v>2.423831992827272</v>
-      </c>
-      <c r="LX3">
-        <v>2</v>
-      </c>
-      <c r="LY3">
-        <v>4</v>
-      </c>
-      <c r="LZ3">
-        <v>2.456547619047619</v>
-      </c>
-      <c r="MA3">
-        <v>1.25</v>
-      </c>
-      <c r="MB3">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="MC3">
-        <v>1.566464785214785</v>
-      </c>
-      <c r="MD3">
-        <v>1.061797949279874</v>
-      </c>
-      <c r="ME3">
-        <v>1.793068050937266</v>
-      </c>
-      <c r="MF3">
-        <v>1.323213740102504</v>
-      </c>
-      <c r="MG3">
-        <v>23</v>
-      </c>
-      <c r="MH3">
-        <v>44</v>
-      </c>
-      <c r="MI3">
-        <v>33.5</v>
-      </c>
-      <c r="MJ3">
-        <v>10.5</v>
-      </c>
-      <c r="MK3">
-        <v>101.8106</v>
-      </c>
-      <c r="ML3">
-        <v>1.009000000000015</v>
-      </c>
-      <c r="MM3">
-        <v>102.8196</v>
+      <c r="NN3">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="NO3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="NP3">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="NQ3">
+        <v>1.394751082251082</v>
+      </c>
+      <c r="NR3">
+        <v>1.167643096050927</v>
+      </c>
+      <c r="NS3">
+        <v>1.395156829017423</v>
+      </c>
+      <c r="NT3">
+        <v>1.261222096154614</v>
+      </c>
+      <c r="NU3">
+        <v>19</v>
+      </c>
+      <c r="NV3">
+        <v>75</v>
+      </c>
+      <c r="NW3">
+        <v>37.5</v>
+      </c>
+      <c r="NX3">
+        <v>19.49145111751987</v>
+      </c>
+      <c r="NY3">
+        <v>96.98199999999999</v>
+      </c>
+      <c r="NZ3">
+        <v>5.90874027691182</v>
+      </c>
+      <c r="OA3">
+        <v>103.8361</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fx2/Fx2_30.xlsx
+++ b/out_test/tables/Fx2/Fx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>101.2036</v>
@@ -2292,28 +2715,28 @@
         <v>101.2036</v>
       </c>
       <c r="F3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0.6333333333333331</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="K3">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2322,1099 +2745,1333 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="P3">
-        <v>-0.2222222222222203</v>
+        <v>-0.1050134302183552</v>
       </c>
       <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1.236719099400269</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.2208888037222302</v>
+      </c>
+      <c r="U3">
+        <v>-2.25621666666666</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>37.97184</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>3.818022962962961</v>
+      </c>
+      <c r="Z3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>1.150617483466059</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>1.802775637731995</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>1.802775637731995</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4787628248678419</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>1.565689983123232</v>
+      </c>
+      <c r="AM3">
+        <v>1.003746791331375</v>
+      </c>
+      <c r="AN3">
+        <v>8</v>
+      </c>
+      <c r="AO3">
+        <v>3.625026642832253</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.18931203381912</v>
+      </c>
+      <c r="AR3">
+        <v>9</v>
+      </c>
+      <c r="AS3">
+        <v>19</v>
+      </c>
+      <c r="AT3">
+        <v>104.6529</v>
+      </c>
+      <c r="AU3">
+        <v>104.6529</v>
+      </c>
+      <c r="AV3">
+        <v>0.5</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6518518518518517</v>
+      </c>
+      <c r="BA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BB3">
+        <v>8</v>
+      </c>
+      <c r="BC3">
+        <v>0.5</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0.3481481481481482</v>
+      </c>
+      <c r="BF3">
+        <v>-0.2184153323642808</v>
+      </c>
+      <c r="BG3">
+        <v>9</v>
+      </c>
+      <c r="BH3">
+        <v>0.7875633244236324</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1360350614781907</v>
+      </c>
+      <c r="BK3">
+        <v>-1.755359999999982</v>
+      </c>
+      <c r="BL3">
+        <v>9</v>
+      </c>
+      <c r="BM3">
+        <v>24.62258666666668</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>2.181952222222223</v>
+      </c>
+      <c r="BP3">
+        <v>1.5</v>
+      </c>
+      <c r="BQ3">
+        <v>1.7</v>
+      </c>
+      <c r="BR3">
+        <v>4</v>
+      </c>
+      <c r="BS3">
+        <v>1.287911221368339</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.3557890621012234</v>
+      </c>
+      <c r="CA3">
+        <v>4</v>
+      </c>
+      <c r="CB3">
+        <v>1.600741597754343</v>
+      </c>
+      <c r="CC3">
+        <v>1.003001509460267</v>
+      </c>
+      <c r="CD3">
+        <v>18</v>
+      </c>
+      <c r="CE3">
+        <v>2.567843329828394</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.098734683372772</v>
+      </c>
+      <c r="CH3">
+        <v>18</v>
+      </c>
+      <c r="CI3">
+        <v>44</v>
+      </c>
+      <c r="CJ3">
+        <v>96.6289</v>
+      </c>
+      <c r="CK3">
+        <v>96.62890000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.5</v>
+      </c>
+      <c r="CM3">
+        <v>32</v>
+      </c>
+      <c r="CN3">
+        <v>0.8</v>
+      </c>
+      <c r="CO3">
+        <v>26</v>
+      </c>
+      <c r="CP3">
+        <v>0.63953488372093</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2</v>
+      </c>
+      <c r="CR3">
+        <v>26</v>
+      </c>
+      <c r="CS3">
+        <v>0.5</v>
+      </c>
+      <c r="CT3">
+        <v>32</v>
+      </c>
+      <c r="CU3">
+        <v>0.36046511627907</v>
+      </c>
+      <c r="CV3">
+        <v>-0.4708709557974082</v>
+      </c>
+      <c r="CW3">
+        <v>32</v>
+      </c>
+      <c r="CX3">
+        <v>0.8009828924077531</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.001542871348563159</v>
+      </c>
+      <c r="DA3">
+        <v>-2.380719999999997</v>
+      </c>
+      <c r="DB3">
         <v>17</v>
       </c>
-      <c r="R3">
-        <v>1.187729113923087</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.09406771460193936</v>
-      </c>
-      <c r="U3">
-        <v>-1.525406666666655</v>
-      </c>
-      <c r="V3">
+      <c r="DC3">
+        <v>27.35023666666669</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.411273178294574</v>
+      </c>
+      <c r="DF3">
+        <v>2</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>10</v>
+      </c>
+      <c r="DI3">
+        <v>0.9998901657771154</v>
+      </c>
+      <c r="DJ3">
+        <v>43</v>
+      </c>
+      <c r="DK3">
+        <v>35</v>
+      </c>
+      <c r="DL3">
+        <v>26</v>
+      </c>
+      <c r="DM3">
+        <v>9.886859966642593</v>
+      </c>
+      <c r="DN3">
+        <v>18</v>
+      </c>
+      <c r="DO3">
+        <v>9.886859966642593</v>
+      </c>
+      <c r="DP3">
+        <v>0.4189482849561858</v>
+      </c>
+      <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>1.325657386660595</v>
+      </c>
+      <c r="DS3">
+        <v>1.01624470633241</v>
+      </c>
+      <c r="DT3">
+        <v>24</v>
+      </c>
+      <c r="DU3">
+        <v>2.028396112590793</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.072780290163913</v>
+      </c>
+      <c r="DX3">
+        <v>43</v>
+      </c>
+      <c r="DY3">
+        <v>28</v>
+      </c>
+      <c r="DZ3">
+        <v>104.6529</v>
+      </c>
+      <c r="EA3">
+        <v>104.6529</v>
+      </c>
+      <c r="EB3">
+        <v>0.5</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="EE3">
+        <v>26</v>
+      </c>
+      <c r="EF3">
+        <v>0.630864197530864</v>
+      </c>
+      <c r="EG3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="EH3">
+        <v>26</v>
+      </c>
+      <c r="EI3">
+        <v>0.5</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0.3691358024691358</v>
+      </c>
+      <c r="EL3">
+        <v>-0.4472135954999549</v>
+      </c>
+      <c r="EM3">
+        <v>19</v>
+      </c>
+      <c r="EN3">
+        <v>0.6205361839996922</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0.1114180496935774</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.3393333333333288</v>
+      </c>
+      <c r="ER3">
+        <v>19</v>
+      </c>
+      <c r="ES3">
+        <v>20.38713666666668</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>1.562573209876543</v>
+      </c>
+      <c r="EV3">
+        <v>1.25</v>
+      </c>
+      <c r="EW3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="EX3">
+        <v>6</v>
+      </c>
+      <c r="EY3">
+        <v>1.195847490588302</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0.4996652094234402</v>
+      </c>
+      <c r="FG3">
+        <v>4</v>
+      </c>
+      <c r="FH3">
+        <v>1.675426904502565</v>
+      </c>
+      <c r="FI3">
+        <v>1.000648913754709</v>
+      </c>
+      <c r="FJ3">
+        <v>26</v>
+      </c>
+      <c r="FK3">
+        <v>2.48721805774052</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.068494825978673</v>
+      </c>
+      <c r="FN3">
+        <v>27</v>
+      </c>
+      <c r="FO3">
+        <v>14</v>
+      </c>
+      <c r="FP3">
+        <v>104.6529</v>
+      </c>
+      <c r="FQ3">
+        <v>104.6529</v>
+      </c>
+      <c r="FR3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FU3">
+        <v>11</v>
+      </c>
+      <c r="FV3">
+        <v>0.628205128205128</v>
+      </c>
+      <c r="FW3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FX3">
+        <v>11</v>
+      </c>
+      <c r="FY3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="GB3">
+        <v>-0.1105315929940002</v>
+      </c>
+      <c r="GC3">
+        <v>7</v>
+      </c>
+      <c r="GD3">
+        <v>0.9307063231305799</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.1900056422632514</v>
+      </c>
+      <c r="GG3">
+        <v>-0.4228266666666656</v>
+      </c>
+      <c r="GH3">
+        <v>7</v>
+      </c>
+      <c r="GI3">
+        <v>34.17817</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>2.91984512820513</v>
+      </c>
+      <c r="GL3">
+        <v>3</v>
+      </c>
+      <c r="GM3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="GN3">
+        <v>4</v>
+      </c>
+      <c r="GO3">
+        <v>1.386984921209059</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.5830363068491033</v>
+      </c>
+      <c r="GW3">
+        <v>3</v>
+      </c>
+      <c r="GX3">
+        <v>1.569128660186679</v>
+      </c>
+      <c r="GY3">
+        <v>1.004056666690758</v>
+      </c>
+      <c r="GZ3">
+        <v>12</v>
+      </c>
+      <c r="HA3">
+        <v>3.218431161054157</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.090045754789891</v>
+      </c>
+      <c r="HD3">
+        <v>13</v>
+      </c>
+      <c r="HE3">
+        <v>20</v>
+      </c>
+      <c r="HF3">
+        <v>104.6529</v>
+      </c>
+      <c r="HG3">
+        <v>104.6529</v>
+      </c>
+      <c r="HH3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="HK3">
+        <v>14</v>
+      </c>
+      <c r="HL3">
+        <v>0.6315789473684209</v>
+      </c>
+      <c r="HM3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="HN3">
+        <v>14</v>
+      </c>
+      <c r="HO3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="HR3">
+        <v>-0.1336306209562047</v>
+      </c>
+      <c r="HS3">
         <v>17</v>
       </c>
-      <c r="W3">
-        <v>36.46766666666669</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1.630289999999998</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="AB3">
+      <c r="HT3">
+        <v>0.7661610078568476</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.1485491945337506</v>
+      </c>
+      <c r="HW3">
+        <v>-0.6744966666666841</v>
+      </c>
+      <c r="HX3">
+        <v>8</v>
+      </c>
+      <c r="HY3">
+        <v>23.33025333333332</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>2.737186666666668</v>
+      </c>
+      <c r="IB3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="IC3">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="ID3">
+        <v>6</v>
+      </c>
+      <c r="IE3">
+        <v>1.240962331951463</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.5988992593349407</v>
+      </c>
+      <c r="IM3">
+        <v>3</v>
+      </c>
+      <c r="IN3">
+        <v>1.987847084818664</v>
+      </c>
+      <c r="IO3">
+        <v>1.006649118742316</v>
+      </c>
+      <c r="IP3">
+        <v>15</v>
+      </c>
+      <c r="IQ3">
+        <v>3.5698097632359</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.118156209750521</v>
+      </c>
+      <c r="IT3">
+        <v>19</v>
+      </c>
+      <c r="IU3">
+        <v>84</v>
+      </c>
+      <c r="IV3">
+        <v>97.02249999999999</v>
+      </c>
+      <c r="IW3">
+        <v>97.02250000000001</v>
+      </c>
+      <c r="IX3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="IY3">
+        <v>0</v>
+      </c>
+      <c r="IZ3">
+        <v>0.8</v>
+      </c>
+      <c r="JA3">
+        <v>23</v>
+      </c>
+      <c r="JB3">
+        <v>0.6313253012048196</v>
+      </c>
+      <c r="JC3">
+        <v>0.2</v>
+      </c>
+      <c r="JD3">
+        <v>23</v>
+      </c>
+      <c r="JE3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="JF3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>0.3686746987951807</v>
+      </c>
+      <c r="JH3">
+        <v>-0.4666666666666734</v>
+      </c>
+      <c r="JI3">
+        <v>54</v>
+      </c>
+      <c r="JJ3">
+        <v>1.080660044224934</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.01146310248145459</v>
+      </c>
+      <c r="JM3">
+        <v>-2.059829999999991</v>
+      </c>
+      <c r="JN3">
         <v>5</v>
       </c>
-      <c r="AC3">
-        <v>1.00708094220025</v>
-      </c>
-      <c r="AD3">
-        <v>22</v>
-      </c>
-      <c r="AE3">
-        <v>22</v>
-      </c>
-      <c r="AF3">
-        <v>11.5</v>
-      </c>
-      <c r="AG3">
-        <v>6.133922073192648</v>
-      </c>
-      <c r="AH3">
-        <v>11.5</v>
-      </c>
-      <c r="AI3">
-        <v>6.133922073192648</v>
-      </c>
-      <c r="AJ3">
-        <v>39</v>
-      </c>
-      <c r="AK3">
+      <c r="JO3">
+        <v>38.14071333333332</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.2338916064257031</v>
+      </c>
+      <c r="JR3">
+        <v>0</v>
+      </c>
+      <c r="JS3">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="JT3">
+        <v>28</v>
+      </c>
+      <c r="JU3">
+        <v>1.011645424414031</v>
+      </c>
+      <c r="JV3">
+        <v>83</v>
+      </c>
+      <c r="JW3">
+        <v>83</v>
+      </c>
+      <c r="JX3">
+        <v>42</v>
+      </c>
+      <c r="JY3">
+        <v>23.74342014116754</v>
+      </c>
+      <c r="JZ3">
+        <v>42</v>
+      </c>
+      <c r="KA3">
+        <v>23.74342014116754</v>
+      </c>
+      <c r="KB3">
+        <v>0.3209160060009478</v>
+      </c>
+      <c r="KC3">
+        <v>3</v>
+      </c>
+      <c r="KD3">
+        <v>1.348454821830439</v>
+      </c>
+      <c r="KE3">
+        <v>1.001408291467387</v>
+      </c>
+      <c r="KF3">
+        <v>31</v>
+      </c>
+      <c r="KG3">
+        <v>2.651536002925519</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.030954545840756</v>
+      </c>
+      <c r="KJ3">
+        <v>83</v>
+      </c>
+      <c r="KK3">
+        <v>8</v>
+      </c>
+      <c r="KL3">
         <v>104.6529</v>
       </c>
-      <c r="AL3">
+      <c r="KM3">
         <v>104.6529</v>
       </c>
-      <c r="AM3">
+      <c r="KN3">
+        <v>0.5</v>
+      </c>
+      <c r="KO3">
+        <v>0</v>
+      </c>
+      <c r="KP3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="KQ3">
+        <v>3</v>
+      </c>
+      <c r="KR3">
+        <v>0.6095238095238094</v>
+      </c>
+      <c r="KS3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>3</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
+        <v>0</v>
+      </c>
+      <c r="KW3">
+        <v>0.3904761904761905</v>
+      </c>
+      <c r="KX3">
+        <v>0.01454742513428924</v>
+      </c>
+      <c r="KY3">
+        <v>3</v>
+      </c>
+      <c r="KZ3">
+        <v>0.9335618574477024</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.3376588229972084</v>
+      </c>
+      <c r="LC3">
+        <v>0.2941466666666628</v>
+      </c>
+      <c r="LD3">
+        <v>3</v>
+      </c>
+      <c r="LE3">
+        <v>27.26577000000001</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>6.588826666666669</v>
+      </c>
+      <c r="LH3">
+        <v>2</v>
+      </c>
+      <c r="LI3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="LJ3">
+        <v>4</v>
+      </c>
+      <c r="LK3">
+        <v>1.64924907910056</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.5782051567477098</v>
+      </c>
+      <c r="LS3">
+        <v>3</v>
+      </c>
+      <c r="LT3">
+        <v>1.787987517066422</v>
+      </c>
+      <c r="LU3">
+        <v>1.005277053979144</v>
+      </c>
+      <c r="LV3">
+        <v>7</v>
+      </c>
+      <c r="LW3">
+        <v>3.347249345201498</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.247450027795633</v>
+      </c>
+      <c r="LZ3">
+        <v>7</v>
+      </c>
+      <c r="MA3">
+        <v>36</v>
+      </c>
+      <c r="MB3">
+        <v>104.6529</v>
+      </c>
+      <c r="MC3">
+        <v>104.6529</v>
+      </c>
+      <c r="MD3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="ME3">
+        <v>12</v>
+      </c>
+      <c r="MF3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AP3">
-        <v>18</v>
-      </c>
-      <c r="AQ3">
-        <v>0.6412280701754386</v>
-      </c>
-      <c r="AR3">
+      <c r="MG3">
+        <v>23</v>
+      </c>
+      <c r="MH3">
+        <v>0.6276190476190475</v>
+      </c>
+      <c r="MI3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="AS3">
-        <v>18</v>
-      </c>
-      <c r="AT3">
+      <c r="MJ3">
+        <v>23</v>
+      </c>
+      <c r="MK3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0.3587719298245616</v>
-      </c>
-      <c r="AW3">
-        <v>-0.3713906763541082</v>
-      </c>
-      <c r="AX3">
-        <v>32</v>
-      </c>
-      <c r="AY3">
-        <v>0.8162476193956582</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.0918659187039</v>
-      </c>
-      <c r="BB3">
-        <v>-2.633039999999994</v>
-      </c>
-      <c r="BC3">
-        <v>17</v>
-      </c>
-      <c r="BD3">
-        <v>25.51938</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>1.009956491228071</v>
-      </c>
-      <c r="BG3">
-        <v>0.5</v>
-      </c>
-      <c r="BH3">
+      <c r="ML3">
+        <v>12</v>
+      </c>
+      <c r="MM3">
+        <v>0.3723809523809525</v>
+      </c>
+      <c r="MN3">
+        <v>-0.2075143391598226</v>
+      </c>
+      <c r="MO3">
+        <v>21</v>
+      </c>
+      <c r="MP3">
+        <v>0.7711962960218267</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.08418977102201886</v>
+      </c>
+      <c r="MS3">
+        <v>-1.383200000000002</v>
+      </c>
+      <c r="MT3">
+        <v>21</v>
+      </c>
+      <c r="MU3">
+        <v>26.01077999999999</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.8898963809523818</v>
+      </c>
+      <c r="MX3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="MY3">
         <v>1.363636363636364</v>
       </c>
-      <c r="BI3">
-        <v>15</v>
-      </c>
-      <c r="BJ3">
-        <v>1.167643096050927</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
+      <c r="MZ3">
         <v>24</v>
       </c>
-      <c r="BR3">
-        <v>102.4144</v>
-      </c>
-      <c r="BS3">
-        <v>102.4144</v>
-      </c>
-      <c r="BT3">
+      <c r="NA3">
+        <v>1.14267114068985</v>
+      </c>
+      <c r="NB3">
+        <v>0</v>
+      </c>
+      <c r="NC3">
+        <v>0</v>
+      </c>
+      <c r="NH3">
+        <v>0.431452778202783</v>
+      </c>
+      <c r="NI3">
+        <v>3</v>
+      </c>
+      <c r="NJ3">
+        <v>1.423722555611615</v>
+      </c>
+      <c r="NK3">
+        <v>1.004425170878716</v>
+      </c>
+      <c r="NL3">
+        <v>35</v>
+      </c>
+      <c r="NM3">
+        <v>2.203416249763838</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.097947433296732</v>
+      </c>
+      <c r="NP3">
+        <v>35</v>
+      </c>
+      <c r="NQ3">
+        <v>10</v>
+      </c>
+      <c r="NR3">
+        <v>104.6529</v>
+      </c>
+      <c r="NS3">
+        <v>104.6529</v>
+      </c>
+      <c r="NT3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="NU3">
+        <v>1</v>
+      </c>
+      <c r="NV3">
+        <v>0.7</v>
+      </c>
+      <c r="NW3">
+        <v>3</v>
+      </c>
+      <c r="NX3">
+        <v>0.625925925925926</v>
+      </c>
+      <c r="NY3">
+        <v>0.3</v>
+      </c>
+      <c r="NZ3">
+        <v>3</v>
+      </c>
+      <c r="OA3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="OB3">
+        <v>1</v>
+      </c>
+      <c r="OC3">
+        <v>0.3740740740740741</v>
+      </c>
+      <c r="OD3">
+        <v>-0.07995296171593796</v>
+      </c>
+      <c r="OE3">
+        <v>5</v>
+      </c>
+      <c r="OF3">
+        <v>0.7513598238155836</v>
+      </c>
+      <c r="OG3">
+        <v>1</v>
+      </c>
+      <c r="OH3">
+        <v>0.285632238381424</v>
+      </c>
+      <c r="OI3">
+        <v>-1.381643333333344</v>
+      </c>
+      <c r="OJ3">
+        <v>5</v>
+      </c>
+      <c r="OK3">
+        <v>20.04931666666668</v>
+      </c>
+      <c r="OL3">
+        <v>1</v>
+      </c>
+      <c r="OM3">
+        <v>6.561861851851853</v>
+      </c>
+      <c r="ON3">
+        <v>3.5</v>
+      </c>
+      <c r="OO3">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="OP3">
+        <v>4</v>
+      </c>
+      <c r="OQ3">
+        <v>1.539433627064811</v>
+      </c>
+      <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.7513598238155836</v>
+      </c>
+      <c r="OY3">
+        <v>2</v>
+      </c>
+      <c r="OZ3">
+        <v>2.295213856902956</v>
+      </c>
+      <c r="PA3">
+        <v>1.015112552315081</v>
+      </c>
+      <c r="PB3">
+        <v>9</v>
+      </c>
+      <c r="PC3">
+        <v>3.172647894651</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.293621721004318</v>
+      </c>
+      <c r="PF3">
+        <v>9</v>
+      </c>
+      <c r="PG3">
+        <v>0.7</v>
+      </c>
+      <c r="PH3">
+        <v>7</v>
+      </c>
+      <c r="PI3">
+        <v>8</v>
+      </c>
+      <c r="PJ3">
+        <v>36</v>
+      </c>
+      <c r="PK3">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="PL3">
+        <v>9.23834069384271</v>
+      </c>
+      <c r="PM3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="PN3">
+        <v>0</v>
+      </c>
+      <c r="PO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="PP3">
+        <v>8</v>
+      </c>
+      <c r="PQ3">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="PR3">
+        <v>0.7238095238095238</v>
+      </c>
+      <c r="PS3">
+        <v>0.629366986860721</v>
+      </c>
+      <c r="PT3">
+        <v>0.0301169300968417</v>
+      </c>
+      <c r="PU3">
+        <v>0.02935435239509038</v>
+      </c>
+      <c r="PV3">
+        <v>0.01148104871427595</v>
+      </c>
+      <c r="PW3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="PX3">
+        <v>8</v>
+      </c>
+      <c r="PY3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BW3">
-        <v>3</v>
-      </c>
-      <c r="BX3">
-        <v>0.6594202898550724</v>
-      </c>
-      <c r="BY3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BZ3">
-        <v>3</v>
-      </c>
-      <c r="CA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0.3405797101449274</v>
-      </c>
-      <c r="CD3">
-        <v>-0.3909650487961146</v>
-      </c>
-      <c r="CE3">
-        <v>14</v>
-      </c>
-      <c r="CF3">
-        <v>0.7005042896593221</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.07155170801564399</v>
-      </c>
-      <c r="CI3">
-        <v>-1.846326666666656</v>
-      </c>
-      <c r="CJ3">
-        <v>7</v>
-      </c>
-      <c r="CK3">
-        <v>23.91931</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>1.169616231884059</v>
-      </c>
-      <c r="CN3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
+      <c r="PZ3">
+        <v>0</v>
+      </c>
+      <c r="QA3">
+        <v>0.2761904761904762</v>
+      </c>
+      <c r="QB3">
+        <v>0.4857142857142858</v>
+      </c>
+      <c r="QC3">
+        <v>0.3706330131392788</v>
+      </c>
+      <c r="QD3">
+        <v>0.02935435239509036</v>
+      </c>
+      <c r="QE3">
+        <v>0.0301169300968417</v>
+      </c>
+      <c r="QF3">
+        <v>0.01148104871427597</v>
+      </c>
+      <c r="QG3">
+        <v>-0.4472135954999549</v>
+      </c>
+      <c r="QH3">
         <v>19</v>
       </c>
-      <c r="CQ3">
-        <v>1.128954263329263</v>
-      </c>
-      <c r="CR3">
-        <v>23</v>
-      </c>
-      <c r="CS3">
-        <v>6</v>
-      </c>
-      <c r="CT3">
-        <v>20.5</v>
-      </c>
-      <c r="CU3">
-        <v>1.513825177048746</v>
-      </c>
-      <c r="CV3">
+      <c r="QI3">
+        <v>0.9335618574477024</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.1689587167937017</v>
+      </c>
+      <c r="QL3">
+        <v>0.7944406880994093</v>
+      </c>
+      <c r="QM3">
+        <v>0.1847841114813459</v>
+      </c>
+      <c r="QN3">
+        <v>0.1350220098866607</v>
+      </c>
+      <c r="QO3">
+        <v>0.1010014856140396</v>
+      </c>
+      <c r="QP3">
+        <v>0.08681632988353034</v>
+      </c>
+      <c r="QQ3">
+        <v>-1.755359999999982</v>
+      </c>
+      <c r="QR3">
+        <v>9</v>
+      </c>
+      <c r="QS3">
+        <v>34.17817</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.808959047619049</v>
+      </c>
+      <c r="QV3">
+        <v>25.12057333333334</v>
+      </c>
+      <c r="QW3">
+        <v>3.348877446634495</v>
+      </c>
+      <c r="QX3">
+        <v>1.25</v>
+      </c>
+      <c r="QY3">
         <v>3.5</v>
       </c>
-      <c r="CW3">
-        <v>1.513825177048746</v>
-      </c>
-      <c r="CX3">
-        <v>19</v>
-      </c>
-      <c r="CY3">
-        <v>95.45289999999999</v>
-      </c>
-      <c r="CZ3">
-        <v>95.45289999999994</v>
-      </c>
-      <c r="DA3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="DD3">
-        <v>5</v>
-      </c>
-      <c r="DE3">
-        <v>0.6351851851851849</v>
-      </c>
-      <c r="DF3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="DG3">
-        <v>5</v>
-      </c>
-      <c r="DH3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3648148148148146</v>
-      </c>
-      <c r="DK3">
-        <v>-0.2672612419124223</v>
-      </c>
-      <c r="DL3">
-        <v>18</v>
-      </c>
-      <c r="DM3">
-        <v>1.020233136277765</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.01243866095150736</v>
-      </c>
-      <c r="DP3">
-        <v>-0.9200000000000017</v>
-      </c>
-      <c r="DQ3">
-        <v>9</v>
-      </c>
-      <c r="DR3">
-        <v>33.51880666666666</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>1.103211481481479</v>
-      </c>
-      <c r="DU3">
-        <v>1.6</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>19</v>
-      </c>
-      <c r="DX3">
-        <v>1.202130325814536</v>
-      </c>
-      <c r="DY3">
-        <v>18</v>
-      </c>
-      <c r="DZ3">
-        <v>1</v>
-      </c>
-      <c r="EA3">
-        <v>18</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
-        <v>1</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>49</v>
-      </c>
-      <c r="EF3">
-        <v>103.8361</v>
-      </c>
-      <c r="EG3">
-        <v>103.8361</v>
-      </c>
-      <c r="EH3">
-        <v>0.3</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
-        <v>0.8</v>
-      </c>
-      <c r="EK3">
-        <v>14</v>
-      </c>
-      <c r="EL3">
-        <v>0.6444444444444443</v>
-      </c>
-      <c r="EM3">
-        <v>0.2</v>
-      </c>
-      <c r="EN3">
-        <v>14</v>
-      </c>
-      <c r="EO3">
-        <v>0.7</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3555555555555557</v>
-      </c>
-      <c r="ER3">
-        <v>-0.3931944583560265</v>
-      </c>
-      <c r="ES3">
-        <v>33</v>
-      </c>
-      <c r="ET3">
-        <v>1.443200232588501</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.005610917530269111</v>
-      </c>
-      <c r="EW3">
-        <v>-1.917756666666662</v>
-      </c>
-      <c r="EX3">
-        <v>24</v>
-      </c>
-      <c r="EY3">
-        <v>52.99839666666667</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0.3816866666666663</v>
-      </c>
-      <c r="FB3">
-        <v>1.2</v>
-      </c>
-      <c r="FC3">
+      <c r="QZ3">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="RA3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="RB3">
         <v>1.7</v>
       </c>
-      <c r="FD3">
-        <v>23</v>
-      </c>
-      <c r="FE3">
-        <v>1.098058666129052</v>
-      </c>
-      <c r="FF3">
-        <v>48</v>
-      </c>
-      <c r="FG3">
-        <v>1</v>
-      </c>
-      <c r="FH3">
-        <v>48</v>
-      </c>
-      <c r="FI3">
-        <v>0</v>
-      </c>
-      <c r="FJ3">
-        <v>1</v>
-      </c>
-      <c r="FK3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>35</v>
-      </c>
-      <c r="FM3">
-        <v>90.06010000000001</v>
-      </c>
-      <c r="FN3">
-        <v>90.06010000000002</v>
-      </c>
-      <c r="FO3">
-        <v>0.5</v>
-      </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FR3">
-        <v>28</v>
-      </c>
-      <c r="FS3">
-        <v>0.6372549019607843</v>
-      </c>
-      <c r="FT3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FU3">
-        <v>28</v>
-      </c>
-      <c r="FV3">
-        <v>0.5</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>0.3627450980392157</v>
-      </c>
-      <c r="FY3">
-        <v>-0.3333333333333289</v>
-      </c>
-      <c r="FZ3">
-        <v>30</v>
-      </c>
-      <c r="GA3">
-        <v>0.9954217185006572</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.03216696469749031</v>
-      </c>
-      <c r="GD3">
-        <v>-0.7781699999999887</v>
-      </c>
-      <c r="GE3">
-        <v>8</v>
-      </c>
-      <c r="GF3">
-        <v>30.31143666666667</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.8950753921568629</v>
-      </c>
-      <c r="GI3">
-        <v>3</v>
-      </c>
-      <c r="GJ3">
-        <v>1.25</v>
-      </c>
-      <c r="GK3">
-        <v>20</v>
-      </c>
-      <c r="GL3">
-        <v>0.9939768961197538</v>
-      </c>
-      <c r="GM3">
-        <v>34</v>
-      </c>
-      <c r="GN3">
-        <v>27</v>
-      </c>
-      <c r="GO3">
-        <v>21</v>
-      </c>
-      <c r="GP3">
-        <v>7.577378614446204</v>
-      </c>
-      <c r="GQ3">
-        <v>14</v>
-      </c>
-      <c r="GR3">
-        <v>7.577378614446204</v>
-      </c>
-      <c r="GS3">
-        <v>23</v>
-      </c>
-      <c r="GT3">
-        <v>104.6529</v>
-      </c>
-      <c r="GU3">
-        <v>104.6529</v>
-      </c>
-      <c r="GV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GY3">
-        <v>13</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6318181818181816</v>
-      </c>
-      <c r="HA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="HB3">
-        <v>13</v>
-      </c>
-      <c r="HC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>0</v>
-      </c>
-      <c r="HE3">
-        <v>0.3681818181818181</v>
-      </c>
-      <c r="HF3">
-        <v>-0.2802566928831161</v>
-      </c>
-      <c r="HG3">
-        <v>6</v>
-      </c>
-      <c r="HH3">
-        <v>0.9002617591942994</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.13801014289991</v>
-      </c>
-      <c r="HK3">
-        <v>-3.037976666666694</v>
-      </c>
-      <c r="HL3">
-        <v>6</v>
-      </c>
-      <c r="HM3">
-        <v>31.77375333333332</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>1.51865287878788</v>
-      </c>
-      <c r="HP3">
-        <v>1</v>
-      </c>
-      <c r="HQ3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="HR3">
-        <v>13</v>
-      </c>
-      <c r="HS3">
-        <v>1.230928680184973</v>
-      </c>
-      <c r="HT3">
-        <v>0</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>21</v>
-      </c>
-      <c r="IA3">
-        <v>104.6529</v>
-      </c>
-      <c r="IB3">
-        <v>104.6529</v>
-      </c>
-      <c r="IC3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="ID3">
-        <v>0</v>
-      </c>
-      <c r="IE3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="IF3">
-        <v>12</v>
-      </c>
-      <c r="IG3">
-        <v>0.6483333333333331</v>
-      </c>
-      <c r="IH3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="II3">
-        <v>12</v>
-      </c>
-      <c r="IJ3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="IK3">
-        <v>0</v>
-      </c>
-      <c r="IL3">
-        <v>0.3516666666666667</v>
-      </c>
-      <c r="IM3">
-        <v>-0.3713906763540992</v>
-      </c>
-      <c r="IN3">
-        <v>19</v>
-      </c>
-      <c r="IO3">
-        <v>1.092252505352855</v>
-      </c>
-      <c r="IP3">
-        <v>0</v>
-      </c>
-      <c r="IQ3">
-        <v>0.1273472700345197</v>
-      </c>
-      <c r="IR3">
-        <v>-1.098719999999986</v>
-      </c>
-      <c r="IS3">
-        <v>19</v>
-      </c>
-      <c r="IT3">
-        <v>31.90051666666668</v>
-      </c>
-      <c r="IU3">
-        <v>0</v>
-      </c>
-      <c r="IV3">
-        <v>2.074352</v>
-      </c>
-      <c r="IW3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="IX3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="IY3">
-        <v>9</v>
-      </c>
-      <c r="IZ3">
-        <v>1.25115977936513</v>
-      </c>
-      <c r="JA3">
-        <v>0</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JG3">
-        <v>75</v>
-      </c>
-      <c r="JH3">
-        <v>88.92489999999999</v>
-      </c>
-      <c r="JI3">
-        <v>88.92489999999999</v>
-      </c>
-      <c r="JJ3">
-        <v>0.5</v>
-      </c>
-      <c r="JK3">
-        <v>52</v>
-      </c>
-      <c r="JL3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JM3">
-        <v>22</v>
-      </c>
-      <c r="JN3">
-        <v>0.6297297297297295</v>
-      </c>
-      <c r="JO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JP3">
-        <v>22</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5</v>
-      </c>
-      <c r="JR3">
-        <v>52</v>
-      </c>
-      <c r="JS3">
-        <v>0.3702702702702701</v>
-      </c>
-      <c r="JT3">
-        <v>-0.5516772843673602</v>
-      </c>
-      <c r="JU3">
-        <v>44</v>
-      </c>
-      <c r="JV3">
-        <v>0.6154451104577239</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0.006307034025938993</v>
-      </c>
-      <c r="JY3">
-        <v>-2.704093333333319</v>
-      </c>
-      <c r="JZ3">
-        <v>27</v>
-      </c>
-      <c r="KA3">
-        <v>20.75763</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.27934490990991</v>
-      </c>
-      <c r="KD3">
-        <v>2</v>
-      </c>
-      <c r="KE3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="KF3">
-        <v>12</v>
-      </c>
-      <c r="KG3">
-        <v>1.060634490052406</v>
-      </c>
-      <c r="KH3">
-        <v>74</v>
-      </c>
-      <c r="KI3">
-        <v>71</v>
-      </c>
-      <c r="KJ3">
-        <v>39</v>
-      </c>
-      <c r="KK3">
-        <v>20.27929979067326</v>
-      </c>
-      <c r="KL3">
-        <v>36</v>
-      </c>
-      <c r="KM3">
-        <v>20.27929979067326</v>
-      </c>
-      <c r="KN3">
-        <v>16</v>
-      </c>
-      <c r="KO3">
-        <v>104.6529</v>
-      </c>
-      <c r="KP3">
-        <v>104.6529</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5</v>
-      </c>
-      <c r="KR3">
-        <v>0</v>
-      </c>
-      <c r="KS3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="KT3">
-        <v>9</v>
-      </c>
-      <c r="KU3">
-        <v>0.6088888888888887</v>
-      </c>
-      <c r="KV3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="KW3">
-        <v>9</v>
-      </c>
-      <c r="KX3">
-        <v>0.5</v>
-      </c>
-      <c r="KY3">
-        <v>0</v>
-      </c>
-      <c r="KZ3">
-        <v>0.391111111111111</v>
-      </c>
-      <c r="LA3">
-        <v>-0.2509946136037585</v>
-      </c>
-      <c r="LB3">
-        <v>3</v>
-      </c>
-      <c r="LC3">
-        <v>0.5609987084823562</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.2279237764342976</v>
-      </c>
-      <c r="LF3">
-        <v>-6.2084233333333</v>
-      </c>
-      <c r="LG3">
-        <v>3</v>
-      </c>
-      <c r="LH3">
-        <v>16.20349333333332</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>3.697561777777779</v>
-      </c>
-      <c r="LK3">
-        <v>2</v>
-      </c>
-      <c r="LL3">
-        <v>1.727272727272727</v>
-      </c>
-      <c r="LM3">
-        <v>11</v>
-      </c>
-      <c r="LN3">
-        <v>1.395156829017423</v>
-      </c>
-      <c r="LO3">
-        <v>0</v>
-      </c>
-      <c r="LP3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>0.4</v>
-      </c>
-      <c r="LV3">
-        <v>4</v>
-      </c>
-      <c r="LW3">
-        <v>16</v>
-      </c>
-      <c r="LX3">
-        <v>39</v>
-      </c>
-      <c r="LY3">
-        <v>24.75</v>
-      </c>
-      <c r="LZ3">
-        <v>8.613216588476108</v>
-      </c>
-      <c r="MA3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="MB3">
-        <v>0</v>
-      </c>
-      <c r="MC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="MD3">
-        <v>13</v>
-      </c>
-      <c r="ME3">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="MF3">
-        <v>0.75</v>
-      </c>
-      <c r="MG3">
-        <v>0.6325671185539604</v>
-      </c>
-      <c r="MH3">
-        <v>0.03726779962499649</v>
-      </c>
-      <c r="MI3">
-        <v>0.01666666666666672</v>
-      </c>
-      <c r="MJ3">
-        <v>0.01487283663062444</v>
-      </c>
-      <c r="MK3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="ML3">
-        <v>13</v>
-      </c>
-      <c r="MM3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="MN3">
-        <v>0</v>
-      </c>
-      <c r="MO3">
-        <v>0.25</v>
-      </c>
-      <c r="MP3">
-        <v>0.5166666666666666</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3674328814460394</v>
-      </c>
-      <c r="MR3">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="MS3">
-        <v>0.03726779962499649</v>
-      </c>
-      <c r="MT3">
-        <v>0.01487283663062436</v>
-      </c>
-      <c r="MU3">
-        <v>-0.3713906763541082</v>
-      </c>
-      <c r="MV3">
-        <v>32</v>
-      </c>
-      <c r="MW3">
-        <v>1.092252505352855</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.3185081647987705</v>
-      </c>
-      <c r="MZ3">
-        <v>0.8424401481062922</v>
-      </c>
-      <c r="NA3">
-        <v>0.1462867770181568</v>
-      </c>
-      <c r="NB3">
-        <v>0.05388500430424849</v>
-      </c>
-      <c r="NC3">
-        <v>0.1908172457089166</v>
-      </c>
-      <c r="ND3">
-        <v>0.05013341473119987</v>
-      </c>
-      <c r="NE3">
-        <v>-6.2084233333333</v>
-      </c>
-      <c r="NF3">
-        <v>3</v>
-      </c>
-      <c r="NG3">
-        <v>31.90051666666668</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-3.244539999999994</v>
-      </c>
-      <c r="NJ3">
-        <v>26.34928583333333</v>
-      </c>
-      <c r="NK3">
-        <v>2.075130786948432</v>
-      </c>
-      <c r="NL3">
-        <v>0.5</v>
-      </c>
-      <c r="NM3">
-        <v>2</v>
-      </c>
-      <c r="NN3">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="NO3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="NP3">
-        <v>1.727272727272727</v>
-      </c>
-      <c r="NQ3">
-        <v>1.394751082251082</v>
-      </c>
-      <c r="NR3">
-        <v>1.167643096050927</v>
-      </c>
-      <c r="NS3">
-        <v>1.395156829017423</v>
-      </c>
-      <c r="NT3">
-        <v>1.261222096154614</v>
-      </c>
-      <c r="NU3">
-        <v>19</v>
-      </c>
-      <c r="NV3">
-        <v>75</v>
-      </c>
-      <c r="NW3">
-        <v>37.5</v>
-      </c>
-      <c r="NX3">
-        <v>19.49145111751987</v>
-      </c>
-      <c r="NY3">
-        <v>96.98199999999999</v>
-      </c>
-      <c r="NZ3">
-        <v>5.90874027691182</v>
-      </c>
-      <c r="OA3">
-        <v>103.8361</v>
+      <c r="RC3">
+        <v>1.395145330859616</v>
+      </c>
+      <c r="RD3">
+        <v>1.14267114068985</v>
+      </c>
+      <c r="RE3">
+        <v>1.64924907910056</v>
+      </c>
+      <c r="RF3">
+        <v>1.349008544567483</v>
+      </c>
+      <c r="RG3">
+        <v>10</v>
+      </c>
+      <c r="RH3">
+        <v>84</v>
+      </c>
+      <c r="RI3">
+        <v>46</v>
+      </c>
+      <c r="RJ3">
+        <v>30.24345659257001</v>
+      </c>
+      <c r="RK3">
+        <v>98.28500000000001</v>
+      </c>
+      <c r="RL3">
+        <v>2.070008004815445</v>
+      </c>
+      <c r="RM3">
+        <v>101.2036</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fx2/Fx2_30.xlsx
+++ b/out_test/tables/Fx2/Fx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,118 +2854,106 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>101.2036</v>
+        <v>104.6529</v>
       </c>
       <c r="E3">
-        <v>101.2036</v>
+        <v>104.6529</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>0.6356060606060611</v>
+      </c>
+      <c r="K3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3643939393939395</v>
+      </c>
+      <c r="P3">
+        <v>-0.3713906763540946</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>1.146012955546884</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.07237889661692526</v>
+      </c>
+      <c r="U3">
+        <v>-0.2299533333333414</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>35.18682666666668</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.9226481818181821</v>
+      </c>
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="K3">
-        <v>0.3</v>
-      </c>
-      <c r="L3">
+      <c r="AA3">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="AB3">
+        <v>11</v>
+      </c>
+      <c r="AC3">
+        <v>1.116350665002907</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.658527186849711</v>
+      </c>
+      <c r="AK3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>0.5</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="P3">
-        <v>-0.1050134302183552</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>1.236719099400269</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.2208888037222302</v>
-      </c>
-      <c r="U3">
-        <v>-2.25621666666666</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>37.97184</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>3.818022962962961</v>
-      </c>
-      <c r="Z3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AA3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>1.150617483466059</v>
-      </c>
-      <c r="AD3">
-        <v>9</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>6</v>
-      </c>
-      <c r="AG3">
-        <v>1.802775637731995</v>
-      </c>
-      <c r="AH3">
-        <v>4</v>
-      </c>
-      <c r="AI3">
-        <v>1.802775637731995</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4787628248678419</v>
-      </c>
-      <c r="AK3">
-        <v>3</v>
-      </c>
       <c r="AL3">
-        <v>1.565689983123232</v>
+        <v>1.633762320006219</v>
       </c>
       <c r="AM3">
-        <v>1.003746791331375</v>
+        <v>1.001099856042673</v>
       </c>
       <c r="AN3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AO3">
         <v>3.625026642832253</v>
@@ -2826,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.18931203381912</v>
+        <v>1.034055813855557</v>
       </c>
       <c r="AR3">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AS3">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="AT3">
         <v>104.6529</v>
@@ -2841,76 +2977,76 @@
         <v>104.6529</v>
       </c>
       <c r="AV3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX3">
         <v>0.7666666666666667</v>
       </c>
       <c r="AY3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AZ3">
-        <v>0.6518518518518517</v>
+        <v>0.6402777777777782</v>
       </c>
       <c r="BA3">
         <v>0.2333333333333333</v>
       </c>
       <c r="BB3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="BC3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE3">
-        <v>0.3481481481481482</v>
+        <v>0.3597222222222221</v>
       </c>
       <c r="BF3">
-        <v>-0.2184153323642808</v>
+        <v>-0.5345224838248492</v>
       </c>
       <c r="BG3">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="BH3">
-        <v>0.7875633244236324</v>
+        <v>0.9390036460977492</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1360350614781907</v>
+        <v>0.0434978538624372</v>
       </c>
       <c r="BK3">
-        <v>-1.755359999999982</v>
+        <v>-1.565883333333346</v>
       </c>
       <c r="BL3">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="BM3">
-        <v>24.62258666666668</v>
+        <v>29.35725666666666</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.181952222222223</v>
+        <v>0.4797287500000004</v>
       </c>
       <c r="BP3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="BR3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="BS3">
-        <v>1.287911221368339</v>
+        <v>1.074356388784582</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2919,145 +3055,133 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.3557890621012234</v>
+        <v>0.1039872886924002</v>
       </c>
       <c r="CA3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>1.600741597754343</v>
+        <v>1.492644029025952</v>
       </c>
       <c r="CC3">
         <v>1.003001509460267</v>
       </c>
       <c r="CD3">
+        <v>51</v>
+      </c>
+      <c r="CE3">
+        <v>2.567843329828393</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.054712110250636</v>
+      </c>
+      <c r="CH3">
+        <v>72</v>
+      </c>
+      <c r="CI3">
+        <v>23</v>
+      </c>
+      <c r="CJ3">
+        <v>104.6529</v>
+      </c>
+      <c r="CK3">
+        <v>104.6529</v>
+      </c>
+      <c r="CL3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>5</v>
+      </c>
+      <c r="CP3">
+        <v>0.6439393939393937</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>5</v>
+      </c>
+      <c r="CS3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>0.356060606060606</v>
+      </c>
+      <c r="CV3">
+        <v>-0.1856953381770502</v>
+      </c>
+      <c r="CW3">
         <v>18</v>
       </c>
-      <c r="CE3">
-        <v>2.567843329828394</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>1.098734683372772</v>
-      </c>
-      <c r="CH3">
-        <v>18</v>
-      </c>
-      <c r="CI3">
-        <v>44</v>
-      </c>
-      <c r="CJ3">
-        <v>96.6289</v>
-      </c>
-      <c r="CK3">
-        <v>96.62890000000003</v>
-      </c>
-      <c r="CL3">
-        <v>0.5</v>
-      </c>
-      <c r="CM3">
-        <v>32</v>
-      </c>
-      <c r="CN3">
-        <v>0.8</v>
-      </c>
-      <c r="CO3">
-        <v>26</v>
-      </c>
-      <c r="CP3">
-        <v>0.63953488372093</v>
-      </c>
-      <c r="CQ3">
-        <v>0.2</v>
-      </c>
-      <c r="CR3">
-        <v>26</v>
-      </c>
-      <c r="CS3">
-        <v>0.5</v>
-      </c>
-      <c r="CT3">
-        <v>32</v>
-      </c>
-      <c r="CU3">
-        <v>0.36046511627907</v>
-      </c>
-      <c r="CV3">
-        <v>-0.4708709557974082</v>
-      </c>
-      <c r="CW3">
-        <v>32</v>
-      </c>
       <c r="CX3">
-        <v>0.8009828924077531</v>
+        <v>0.6527579222430731</v>
       </c>
       <c r="CY3">
         <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.001542871348563159</v>
+        <v>0.09923616339904874</v>
       </c>
       <c r="DA3">
-        <v>-2.380719999999997</v>
+        <v>-0.9874233333333251</v>
       </c>
       <c r="DB3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="DC3">
-        <v>27.35023666666669</v>
+        <v>22.28897000000003</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.411273178294574</v>
+        <v>1.398636969696969</v>
       </c>
       <c r="DF3">
         <v>2</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DH3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DI3">
-        <v>0.9998901657771154</v>
+        <v>1.251799406572564</v>
       </c>
       <c r="DJ3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>35</v>
-      </c>
-      <c r="DL3">
-        <v>26</v>
-      </c>
-      <c r="DM3">
-        <v>9.886859966642593</v>
-      </c>
-      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.4960845371500638</v>
+      </c>
+      <c r="DQ3">
+        <v>4</v>
+      </c>
+      <c r="DR3">
+        <v>1.416470101826918</v>
+      </c>
+      <c r="DS3">
+        <v>1.005034798305557</v>
+      </c>
+      <c r="DT3">
         <v>18</v>
-      </c>
-      <c r="DO3">
-        <v>9.886859966642593</v>
-      </c>
-      <c r="DP3">
-        <v>0.4189482849561858</v>
-      </c>
-      <c r="DQ3">
-        <v>2</v>
-      </c>
-      <c r="DR3">
-        <v>1.325657386660595</v>
-      </c>
-      <c r="DS3">
-        <v>1.01624470633241</v>
-      </c>
-      <c r="DT3">
-        <v>24</v>
       </c>
       <c r="DU3">
         <v>2.028396112590793</v>
@@ -3066,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.072780290163913</v>
+        <v>1.065172595368453</v>
       </c>
       <c r="DX3">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="DY3">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="DZ3">
         <v>104.6529</v>
@@ -3081,76 +3205,76 @@
         <v>104.6529</v>
       </c>
       <c r="EB3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="EE3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="EF3">
-        <v>0.630864197530864</v>
+        <v>0.6259740259740261</v>
       </c>
       <c r="EG3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="EH3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="EI3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.3691358024691358</v>
+        <v>0.374025974025974</v>
       </c>
       <c r="EL3">
-        <v>-0.4472135954999549</v>
+        <v>-0.3636964837266664</v>
       </c>
       <c r="EM3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="EN3">
-        <v>0.6205361839996922</v>
+        <v>0.6585189003986812</v>
       </c>
       <c r="EO3">
         <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.1114180496935774</v>
+        <v>0.03941427129037715</v>
       </c>
       <c r="EQ3">
-        <v>-0.3393333333333288</v>
+        <v>-1.533333333333388</v>
       </c>
       <c r="ER3">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="ES3">
-        <v>20.38713666666668</v>
+        <v>21.63502333333334</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>1.562573209876543</v>
+        <v>0.531708961038961</v>
       </c>
       <c r="EV3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>1.416666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="EX3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="EY3">
-        <v>1.195847490588302</v>
+        <v>1.082690037212055</v>
       </c>
       <c r="EZ3">
         <v>0</v>
@@ -3159,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.4996652094234402</v>
+        <v>0.5070791886601189</v>
       </c>
       <c r="FG3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FH3">
-        <v>1.675426904502565</v>
+        <v>1.642611021496811</v>
       </c>
       <c r="FI3">
-        <v>1.000648913754709</v>
+        <v>1.005895193078787</v>
       </c>
       <c r="FJ3">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="FK3">
         <v>2.48721805774052</v>
@@ -3180,22 +3304,22 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.068494825978673</v>
+        <v>1.066391644248823</v>
       </c>
       <c r="FN3">
+        <v>77</v>
+      </c>
+      <c r="FO3">
         <v>27</v>
       </c>
-      <c r="FO3">
-        <v>14</v>
-      </c>
       <c r="FP3">
-        <v>104.6529</v>
+        <v>103.8361</v>
       </c>
       <c r="FQ3">
-        <v>104.6529</v>
+        <v>103.8361</v>
       </c>
       <c r="FR3">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -3204,88 +3328,100 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="FU3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="FV3">
-        <v>0.628205128205128</v>
+        <v>0.6461538461538459</v>
       </c>
       <c r="FW3">
         <v>0.2666666666666667</v>
       </c>
       <c r="FX3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="FY3">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3717948717948718</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="GB3">
-        <v>-0.1105315929940002</v>
+        <v>-0.2961847771801372</v>
       </c>
       <c r="GC3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="GD3">
-        <v>0.9307063231305799</v>
+        <v>1.135493736079721</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.1900056422632514</v>
+        <v>0.10064311765593</v>
       </c>
       <c r="GG3">
-        <v>-0.4228266666666656</v>
+        <v>-2.098250000000007</v>
       </c>
       <c r="GH3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="GI3">
-        <v>34.17817</v>
+        <v>41.69854333333335</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>2.91984512820513</v>
+        <v>1.139262051282051</v>
       </c>
       <c r="GL3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GM3">
-        <v>1.142857142857143</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="GN3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="GO3">
-        <v>1.386984921209059</v>
+        <v>1.076447647712015</v>
       </c>
       <c r="GP3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="GQ3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="GR3">
+        <v>14.5</v>
+      </c>
+      <c r="GS3">
+        <v>6.711308863900295</v>
+      </c>
+      <c r="GT3">
+        <v>12.5</v>
+      </c>
+      <c r="GU3">
+        <v>6.711308863900295</v>
       </c>
       <c r="GV3">
-        <v>0.5830363068491033</v>
+        <v>0.4094581938655103</v>
       </c>
       <c r="GW3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GX3">
-        <v>1.569128660186679</v>
+        <v>1.410125928234192</v>
       </c>
       <c r="GY3">
-        <v>1.004056666690758</v>
+        <v>1.003824420802297</v>
       </c>
       <c r="GZ3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="HA3">
         <v>3.218431161054157</v>
@@ -3294,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.090045754789891</v>
+        <v>1.103588713182547</v>
       </c>
       <c r="HD3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="HE3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="HF3">
         <v>104.6529</v>
@@ -3309,7 +3445,7 @@
         <v>104.6529</v>
       </c>
       <c r="HH3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="HI3">
         <v>0</v>
@@ -3318,88 +3454,88 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="HK3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HL3">
-        <v>0.6315789473684209</v>
+        <v>0.6435897435897437</v>
       </c>
       <c r="HM3">
         <v>0.2666666666666667</v>
       </c>
       <c r="HN3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HO3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="HP3">
         <v>0</v>
       </c>
       <c r="HQ3">
-        <v>0.3684210526315789</v>
+        <v>0.3564102564102564</v>
       </c>
       <c r="HR3">
-        <v>-0.1336306209562047</v>
+        <v>-0.1576220812478224</v>
       </c>
       <c r="HS3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="HT3">
-        <v>0.7661610078568476</v>
+        <v>1.018341385802747</v>
       </c>
       <c r="HU3">
         <v>0</v>
       </c>
       <c r="HV3">
-        <v>0.1485491945337506</v>
+        <v>0.1798858086706942</v>
       </c>
       <c r="HW3">
-        <v>-0.6744966666666841</v>
+        <v>-0.9728533333333473</v>
       </c>
       <c r="HX3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HY3">
-        <v>23.33025333333332</v>
+        <v>31.00936</v>
       </c>
       <c r="HZ3">
         <v>0</v>
       </c>
       <c r="IA3">
-        <v>2.737186666666668</v>
+        <v>3.409803076923078</v>
       </c>
       <c r="IB3">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="IC3">
-        <v>1.428571428571429</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="ID3">
+        <v>4</v>
+      </c>
+      <c r="IE3">
+        <v>1.496307089385812</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.3855948860344937</v>
+      </c>
+      <c r="IM3">
         <v>6</v>
       </c>
-      <c r="IE3">
-        <v>1.240962331951463</v>
-      </c>
-      <c r="IF3">
-        <v>0</v>
-      </c>
-      <c r="IG3">
-        <v>0</v>
-      </c>
-      <c r="IL3">
-        <v>0.5988992593349407</v>
-      </c>
-      <c r="IM3">
-        <v>3</v>
-      </c>
       <c r="IN3">
-        <v>1.987847084818664</v>
+        <v>1.734804840278052</v>
       </c>
       <c r="IO3">
-        <v>1.006649118742316</v>
+        <v>1.004669704666972</v>
       </c>
       <c r="IP3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="IQ3">
         <v>3.5698097632359</v>
@@ -3408,124 +3544,112 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.118156209750521</v>
+        <v>1.136742821932071</v>
       </c>
       <c r="IT3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="IU3">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="IV3">
-        <v>97.02249999999999</v>
+        <v>104.6529</v>
       </c>
       <c r="IW3">
-        <v>97.02250000000001</v>
+        <v>104.6529</v>
       </c>
       <c r="IX3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="IY3">
         <v>0</v>
       </c>
       <c r="IZ3">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="JA3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="JB3">
-        <v>0.6313253012048196</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="JC3">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="JD3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="JE3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="JF3">
         <v>0</v>
       </c>
       <c r="JG3">
-        <v>0.3686746987951807</v>
+        <v>0.3714285714285716</v>
       </c>
       <c r="JH3">
-        <v>-0.4666666666666734</v>
+        <v>-0.4364357804719824</v>
       </c>
       <c r="JI3">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="JJ3">
-        <v>1.080660044224934</v>
+        <v>1.044889845746756</v>
       </c>
       <c r="JK3">
         <v>0</v>
       </c>
       <c r="JL3">
-        <v>0.01146310248145459</v>
+        <v>0.05419865954690082</v>
       </c>
       <c r="JM3">
-        <v>-2.059829999999991</v>
+        <v>-2.709386666666674</v>
       </c>
       <c r="JN3">
+        <v>15</v>
+      </c>
+      <c r="JO3">
+        <v>36.87824333333334</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.8087392380952382</v>
+      </c>
+      <c r="JR3">
+        <v>2</v>
+      </c>
+      <c r="JS3">
+        <v>1.5</v>
+      </c>
+      <c r="JT3">
+        <v>3</v>
+      </c>
+      <c r="JU3">
+        <v>1.179470583285728</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.4781626065493433</v>
+      </c>
+      <c r="KC3">
         <v>5</v>
       </c>
-      <c r="JO3">
-        <v>38.14071333333332</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>0.2338916064257031</v>
-      </c>
-      <c r="JR3">
-        <v>0</v>
-      </c>
-      <c r="JS3">
-        <v>1.384615384615385</v>
-      </c>
-      <c r="JT3">
-        <v>28</v>
-      </c>
-      <c r="JU3">
-        <v>1.011645424414031</v>
-      </c>
-      <c r="JV3">
-        <v>83</v>
-      </c>
-      <c r="JW3">
-        <v>83</v>
-      </c>
-      <c r="JX3">
-        <v>42</v>
-      </c>
-      <c r="JY3">
-        <v>23.74342014116754</v>
-      </c>
-      <c r="JZ3">
-        <v>42</v>
-      </c>
-      <c r="KA3">
-        <v>23.74342014116754</v>
-      </c>
-      <c r="KB3">
-        <v>0.3209160060009478</v>
-      </c>
-      <c r="KC3">
-        <v>3</v>
-      </c>
       <c r="KD3">
-        <v>1.348454821830439</v>
+        <v>1.370752792468495</v>
       </c>
       <c r="KE3">
-        <v>1.001408291467387</v>
+        <v>1.004884509178331</v>
       </c>
       <c r="KF3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="KG3">
         <v>2.651536002925519</v>
@@ -3534,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.030954545840756</v>
+        <v>1.053099672201109</v>
       </c>
       <c r="KJ3">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="KK3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="KL3">
         <v>104.6529</v>
@@ -3549,211 +3673,223 @@
         <v>104.6529</v>
       </c>
       <c r="KN3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="KO3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KP3">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="KQ3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="KR3">
-        <v>0.6095238095238094</v>
+        <v>0.6353535353535354</v>
       </c>
       <c r="KS3">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="KT3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="KU3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="KV3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KW3">
-        <v>0.3904761904761905</v>
+        <v>0.3646464646464649</v>
       </c>
       <c r="KX3">
-        <v>0.01454742513428924</v>
+        <v>-0.4033343503282735</v>
       </c>
       <c r="KY3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="KZ3">
-        <v>0.9335618574477024</v>
+        <v>0.8761257138783128</v>
       </c>
       <c r="LA3">
         <v>0</v>
       </c>
       <c r="LB3">
-        <v>0.3376588229972084</v>
+        <v>0.0929876742952447</v>
       </c>
       <c r="LC3">
-        <v>0.2941466666666628</v>
+        <v>-2.784419999999969</v>
       </c>
       <c r="LD3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="LE3">
-        <v>27.26577000000001</v>
+        <v>25.58828</v>
       </c>
       <c r="LF3">
         <v>0</v>
       </c>
       <c r="LG3">
-        <v>6.588826666666669</v>
+        <v>1.44846292929293</v>
       </c>
       <c r="LH3">
+        <v>2.5</v>
+      </c>
+      <c r="LI3">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="LJ3">
+        <v>9</v>
+      </c>
+      <c r="LK3">
+        <v>1.1417067613724</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.4903649845337317</v>
+      </c>
+      <c r="LS3">
         <v>2</v>
       </c>
-      <c r="LI3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="LJ3">
-        <v>4</v>
-      </c>
-      <c r="LK3">
-        <v>1.64924907910056</v>
-      </c>
-      <c r="LL3">
-        <v>0</v>
-      </c>
-      <c r="LM3">
-        <v>0</v>
-      </c>
-      <c r="LR3">
-        <v>0.5782051567477098</v>
-      </c>
-      <c r="LS3">
-        <v>3</v>
-      </c>
       <c r="LT3">
-        <v>1.787987517066422</v>
+        <v>1.840742838612397</v>
       </c>
       <c r="LU3">
         <v>1.005277053979144</v>
       </c>
       <c r="LV3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="LW3">
-        <v>3.347249345201498</v>
+        <v>3.347249345201497</v>
       </c>
       <c r="LX3">
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.247450027795633</v>
+        <v>1.134258057114933</v>
       </c>
       <c r="LZ3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="MA3">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="MB3">
-        <v>104.6529</v>
+        <v>97.41689999999998</v>
       </c>
       <c r="MC3">
-        <v>104.6529</v>
+        <v>97.41690000000001</v>
       </c>
       <c r="MD3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="ME3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="MF3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="MG3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="MH3">
-        <v>0.6276190476190475</v>
+        <v>0.6415637860082306</v>
       </c>
       <c r="MI3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="MJ3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="MK3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="ML3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="MM3">
-        <v>0.3723809523809525</v>
+        <v>0.3584362139917693</v>
       </c>
       <c r="MN3">
-        <v>-0.2075143391598226</v>
+        <v>-0.5570860145311517</v>
       </c>
       <c r="MO3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="MP3">
-        <v>0.7711962960218267</v>
+        <v>0.7825647504256533</v>
       </c>
       <c r="MQ3">
         <v>0</v>
       </c>
       <c r="MR3">
-        <v>0.08418977102201886</v>
+        <v>0.01582569321597554</v>
       </c>
       <c r="MS3">
-        <v>-1.383200000000002</v>
+        <v>-0.9569699999999841</v>
       </c>
       <c r="MT3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="MU3">
-        <v>26.01077999999999</v>
+        <v>26.39421333333332</v>
       </c>
       <c r="MV3">
         <v>0</v>
       </c>
       <c r="MW3">
-        <v>0.8898963809523818</v>
+        <v>0.2904560493827164</v>
       </c>
       <c r="MX3">
-        <v>1.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="MY3">
-        <v>1.363636363636364</v>
+        <v>0</v>
       </c>
       <c r="MZ3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="NA3">
-        <v>1.14267114068985</v>
+        <v>1.019553431161868</v>
       </c>
       <c r="NB3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="NC3">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="ND3">
+        <v>44</v>
+      </c>
+      <c r="NE3">
+        <v>21.43400724705175</v>
+      </c>
+      <c r="NF3">
+        <v>38</v>
+      </c>
+      <c r="NG3">
+        <v>21.43400724705175</v>
       </c>
       <c r="NH3">
-        <v>0.431452778202783</v>
+        <v>-0.02079235000175693</v>
       </c>
       <c r="NI3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="NJ3">
-        <v>1.423722555611615</v>
+        <v>1.416334506068213</v>
       </c>
       <c r="NK3">
-        <v>1.004425170878716</v>
+        <v>1.001405322090756</v>
       </c>
       <c r="NL3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="NM3">
         <v>2.203416249763838</v>
@@ -3762,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.097947433296732</v>
+        <v>1.031075192001928</v>
       </c>
       <c r="NP3">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="NQ3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="NR3">
         <v>104.6529</v>
@@ -3777,76 +3913,76 @@
         <v>104.6529</v>
       </c>
       <c r="NT3">
-        <v>0.5666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="NU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NV3">
         <v>0.7</v>
       </c>
       <c r="NW3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="NX3">
-        <v>0.625925925925926</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="NY3">
         <v>0.3</v>
       </c>
       <c r="NZ3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="OA3">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="OB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OC3">
-        <v>0.3740740740740741</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="OD3">
-        <v>-0.07995296171593796</v>
+        <v>0.02695196815550991</v>
       </c>
       <c r="OE3">
         <v>5</v>
       </c>
       <c r="OF3">
-        <v>0.7513598238155836</v>
+        <v>0.6637901360612373</v>
       </c>
       <c r="OG3">
         <v>1</v>
       </c>
       <c r="OH3">
-        <v>0.285632238381424</v>
+        <v>0.3025339458821732</v>
       </c>
       <c r="OI3">
-        <v>-1.381643333333344</v>
+        <v>0.311483333333328</v>
       </c>
       <c r="OJ3">
         <v>5</v>
       </c>
       <c r="OK3">
-        <v>20.04931666666668</v>
+        <v>19.33686666666667</v>
       </c>
       <c r="OL3">
         <v>1</v>
       </c>
       <c r="OM3">
-        <v>6.561861851851853</v>
+        <v>6.620292500000001</v>
       </c>
       <c r="ON3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="OO3">
-        <v>1.571428571428571</v>
+        <v>2</v>
       </c>
       <c r="OP3">
         <v>4</v>
       </c>
       <c r="OQ3">
-        <v>1.539433627064811</v>
+        <v>1.659526481748704</v>
       </c>
       <c r="OR3">
         <v>0</v>
@@ -3855,19 +3991,19 @@
         <v>0</v>
       </c>
       <c r="OX3">
-        <v>0.7513598238155836</v>
+        <v>0.6637901360612373</v>
       </c>
       <c r="OY3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="OZ3">
-        <v>2.295213856902956</v>
+        <v>2.024603718744777</v>
       </c>
       <c r="PA3">
-        <v>1.015112552315081</v>
+        <v>1.017988999733148</v>
       </c>
       <c r="PB3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="PC3">
         <v>3.172647894651</v>
@@ -3876,31 +4012,31 @@
         <v>0</v>
       </c>
       <c r="PE3">
-        <v>1.293621721004318</v>
+        <v>1.258613713584794</v>
       </c>
       <c r="PF3">
+        <v>8</v>
+      </c>
+      <c r="PG3">
+        <v>0.8</v>
+      </c>
+      <c r="PH3">
+        <v>8</v>
+      </c>
+      <c r="PI3">
         <v>9</v>
       </c>
-      <c r="PG3">
-        <v>0.7</v>
-      </c>
-      <c r="PH3">
-        <v>7</v>
-      </c>
-      <c r="PI3">
-        <v>8</v>
-      </c>
       <c r="PJ3">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="PK3">
-        <v>19.28571428571428</v>
+        <v>39</v>
       </c>
       <c r="PL3">
-        <v>9.23834069384271</v>
+        <v>23.79075450674064</v>
       </c>
       <c r="PM3">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="PN3">
         <v>0</v>
@@ -3909,154 +4045,226 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="PP3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="PQ3">
-        <v>0.5142857142857142</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="PR3">
-        <v>0.7238095238095238</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="PS3">
-        <v>0.629366986860721</v>
+        <v>0.6337473290598292</v>
       </c>
       <c r="PT3">
-        <v>0.0301169300968417</v>
+        <v>0.0484122918275927</v>
       </c>
       <c r="PU3">
-        <v>0.02935435239509038</v>
+        <v>0.02319901817845847</v>
       </c>
       <c r="PV3">
-        <v>0.01148104871427595</v>
+        <v>0.008862816051369928</v>
       </c>
       <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="PX3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="PY3">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="PZ3">
         <v>0</v>
       </c>
       <c r="QA3">
-        <v>0.2761904761904762</v>
+        <v>0.2541666666666667</v>
       </c>
       <c r="QB3">
-        <v>0.4857142857142858</v>
+        <v>0.5041666666666667</v>
       </c>
       <c r="QC3">
-        <v>0.3706330131392788</v>
+        <v>0.3662526709401709</v>
       </c>
       <c r="QD3">
-        <v>0.02935435239509036</v>
+        <v>0.02319901817845842</v>
       </c>
       <c r="QE3">
-        <v>0.0301169300968417</v>
+        <v>0.0484122918275927</v>
       </c>
       <c r="QF3">
-        <v>0.01148104871427597</v>
+        <v>0.008862816051369925</v>
       </c>
       <c r="QG3">
-        <v>-0.4472135954999549</v>
+        <v>-0.5345224838248492</v>
       </c>
       <c r="QH3">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="QI3">
-        <v>0.9335618574477024</v>
+        <v>1.146012955546884</v>
       </c>
       <c r="QJ3">
         <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.1689587167937017</v>
+        <v>-0.3032181532469036</v>
       </c>
       <c r="QL3">
-        <v>0.7944406880994093</v>
+        <v>0.8749300632219301</v>
       </c>
       <c r="QM3">
-        <v>0.1847841114813459</v>
+        <v>0.1105166591954752</v>
       </c>
       <c r="QN3">
-        <v>0.1350220098866607</v>
+        <v>0.1708797607750975</v>
       </c>
       <c r="QO3">
-        <v>0.1010014856140396</v>
+        <v>0.1829686597814046</v>
       </c>
       <c r="QP3">
-        <v>0.08681632988353034</v>
+        <v>0.08388273662938035</v>
       </c>
       <c r="QQ3">
-        <v>-1.755359999999982</v>
+        <v>-2.784419999999969</v>
       </c>
       <c r="QR3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="QS3">
-        <v>34.17817</v>
+        <v>36.87824333333334</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.808959047619049</v>
+        <v>-1.308971250000008</v>
       </c>
       <c r="QV3">
-        <v>25.12057333333334</v>
+        <v>27.66010333333334</v>
       </c>
       <c r="QW3">
-        <v>3.348877446634495</v>
+        <v>1.95250257585817</v>
       </c>
       <c r="QX3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="QY3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="QZ3">
-        <v>2.083333333333333</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="RA3">
-        <v>1.142857142857143</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="RB3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="RC3">
-        <v>1.395145330859616</v>
+        <v>1.553300865800866</v>
       </c>
       <c r="RD3">
-        <v>1.14267114068985</v>
+        <v>1.074356388784582</v>
       </c>
       <c r="RE3">
-        <v>1.64924907910056</v>
+        <v>1.659526481748704</v>
       </c>
       <c r="RF3">
-        <v>1.349008544567483</v>
+        <v>1.250275926670594</v>
       </c>
       <c r="RG3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="RH3">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="RI3">
-        <v>46</v>
+        <v>54.5</v>
       </c>
       <c r="RJ3">
-        <v>30.24345659257001</v>
+        <v>27.5</v>
       </c>
       <c r="RK3">
-        <v>98.28500000000001</v>
+        <v>100.6265</v>
       </c>
       <c r="RL3">
-        <v>2.070008004815445</v>
+        <v>3.209600000000002</v>
       </c>
       <c r="RM3">
-        <v>101.2036</v>
+        <v>103.8361</v>
+      </c>
+      <c r="RR3">
+        <v>18</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.1039872886924002</v>
+      </c>
+      <c r="RX3">
+        <v>0.6637901360612373</v>
+      </c>
+      <c r="RY3">
+        <v>0.4729488518163875</v>
+      </c>
+      <c r="RZ3">
+        <v>0.1645652261843512</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>6</v>
+      </c>
+      <c r="SC3">
+        <v>3.375</v>
+      </c>
+      <c r="SD3">
+        <v>1.576190026614811</v>
+      </c>
+      <c r="SE3">
+        <v>1.001099856042673</v>
+      </c>
+      <c r="SF3">
+        <v>18</v>
+      </c>
+      <c r="SG3">
+        <v>3.625026642832253</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.00598145305561</v>
+      </c>
+      <c r="SJ3">
+        <v>2.931215893625735</v>
+      </c>
+      <c r="SK3">
+        <v>1.100380803569547</v>
+      </c>
+      <c r="SL3">
+        <v>0.004759398257720079</v>
+      </c>
+      <c r="SM3">
+        <v>0.5411823660570405</v>
+      </c>
+      <c r="SN3">
+        <v>0.06948249650867698</v>
+      </c>
+      <c r="SO3">
+        <v>1.370752792468495</v>
+      </c>
+      <c r="SP3">
+        <v>2.024603718744777</v>
+      </c>
+      <c r="SQ3">
+        <v>1.644548957807453</v>
+      </c>
+      <c r="SR3">
+        <v>0.2065367109429329</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +4279,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
